--- a/Documents/Template QLDA.xlsx
+++ b/Documents/Template QLDA.xlsx
@@ -1,42 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A74217-5BAA-4DAC-A4F6-67C5DDC26DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E741DB3A-944F-4706-914C-EA4C5A7364D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
-    <sheet name="Project schedule (2)" sheetId="13" r:id="rId2"/>
-    <sheet name="Project schedule (3)" sheetId="14" r:id="rId3"/>
+    <sheet name="week 1" sheetId="11" r:id="rId1"/>
+    <sheet name="week 2" sheetId="15" r:id="rId2"/>
+    <sheet name="week 3" sheetId="16" r:id="rId3"/>
     <sheet name="About" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Display_Week" localSheetId="1">'Project schedule (2)'!$Q$2</definedName>
-    <definedName name="Display_Week" localSheetId="2">'Project schedule (3)'!$Q$2</definedName>
-    <definedName name="Display_Week">'Project schedule'!$Q$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project schedule'!$7:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Project schedule (2)'!$7:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Project schedule (3)'!$7:$9</definedName>
-    <definedName name="Project_Start" localSheetId="1">'Project schedule (2)'!$Q$1</definedName>
-    <definedName name="Project_Start" localSheetId="2">'Project schedule (3)'!$Q$1</definedName>
-    <definedName name="Project_Start">'Project schedule'!$Q$1</definedName>
-    <definedName name="task_end" localSheetId="0">'Project schedule'!$F1</definedName>
-    <definedName name="task_end" localSheetId="1">'Project schedule (2)'!$F1</definedName>
-    <definedName name="task_end" localSheetId="2">'Project schedule (3)'!$F1</definedName>
-    <definedName name="task_progress" localSheetId="0">'Project schedule'!$D1</definedName>
-    <definedName name="task_progress" localSheetId="1">'Project schedule (2)'!$D1</definedName>
-    <definedName name="task_progress" localSheetId="2">'Project schedule (3)'!$D1</definedName>
-    <definedName name="task_start" localSheetId="0">'Project schedule'!$E1</definedName>
-    <definedName name="task_start" localSheetId="1">'Project schedule (2)'!$E1</definedName>
-    <definedName name="task_start" localSheetId="2">'Project schedule (3)'!$E1</definedName>
+    <definedName name="Display_Week" localSheetId="1">'week 2'!$Q$2</definedName>
+    <definedName name="Display_Week" localSheetId="2">'week 3'!$Q$2</definedName>
+    <definedName name="Display_Week">'week 1'!$Q$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'week 1'!$7:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'week 2'!$7:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'week 3'!$7:$9</definedName>
+    <definedName name="Project_Start" localSheetId="1">'week 2'!$Q$1</definedName>
+    <definedName name="Project_Start" localSheetId="2">'week 3'!$Q$1</definedName>
+    <definedName name="Project_Start">'week 1'!$Q$1</definedName>
+    <definedName name="task_end" localSheetId="0">'week 1'!$F1</definedName>
+    <definedName name="task_end" localSheetId="1">'week 2'!$F1</definedName>
+    <definedName name="task_end" localSheetId="2">'week 3'!$F1</definedName>
+    <definedName name="task_progress" localSheetId="0">'week 1'!$D1</definedName>
+    <definedName name="task_progress" localSheetId="1">'week 2'!$D1</definedName>
+    <definedName name="task_progress" localSheetId="2">'week 3'!$D1</definedName>
+    <definedName name="task_start" localSheetId="0">'week 1'!$E1</definedName>
+    <definedName name="task_start" localSheetId="1">'week 2'!$E1</definedName>
+    <definedName name="task_start" localSheetId="2">'week 3'!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
     <definedName name="today" localSheetId="1">TODAY()</definedName>
     <definedName name="today" localSheetId="2">TODAY()</definedName>
@@ -53,8 +53,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -62,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -129,21 +127,6 @@
     <t xml:space="preserve">Do not delete this row. This row is hidden to preserve a formula that is used to highlight the current day within the project schedule. </t>
   </si>
   <si>
-    <t>Gokce Aslan</t>
-  </si>
-  <si>
-    <t>Hayden Cook</t>
-  </si>
-  <si>
-    <t>Jens Martensson</t>
-  </si>
-  <si>
-    <t>Nuria Acevedo</t>
-  </si>
-  <si>
-    <t>Olivia Wilson</t>
-  </si>
-  <si>
     <t>Project start:</t>
   </si>
   <si>
@@ -166,12 +149,6 @@
   </si>
   <si>
     <t>Planning</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>Tạo schedule</t>
@@ -263,7 +240,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
@@ -1179,22 +1156,22 @@
     <xf numFmtId="164" fontId="18" fillId="10" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1206,17 +1183,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1234,7 +1211,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill>
@@ -1482,6 +1459,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8"/>
         </patternFill>
       </fill>
@@ -1697,15 +1681,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="35"/>
-      <tableStyleElement type="headerRow" dxfId="34"/>
-      <tableStyleElement type="totalRow" dxfId="33"/>
-      <tableStyleElement type="firstColumn" dxfId="32"/>
-      <tableStyleElement type="lastColumn" dxfId="31"/>
-      <tableStyleElement type="firstRowStripe" dxfId="30"/>
-      <tableStyleElement type="secondRowStripe" dxfId="29"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="27"/>
+      <tableStyleElement type="wholeTable" dxfId="36"/>
+      <tableStyleElement type="headerRow" dxfId="35"/>
+      <tableStyleElement type="totalRow" dxfId="34"/>
+      <tableStyleElement type="firstColumn" dxfId="33"/>
+      <tableStyleElement type="lastColumn" dxfId="32"/>
+      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="secondRowStripe" dxfId="30"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="29"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="28"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2062,27 +2046,27 @@
   </sheetPr>
   <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="51.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" customWidth="1"/>
-    <col min="7" max="7" width="2.69921875" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.69921875" customWidth="1"/>
+    <col min="9" max="65" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.45">
+    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.7">
       <c r="A1" s="14"/>
       <c r="B1" s="97" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
@@ -2090,7 +2074,7 @@
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
       <c r="I1" s="127" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J1" s="128"/>
       <c r="K1" s="128"/>
@@ -2112,16 +2096,16 @@
       <c r="Y1" s="125"/>
       <c r="Z1" s="125"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B2" s="95" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C2" s="96"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
       <c r="I2" s="127" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
@@ -2143,9 +2127,9 @@
       <c r="Y2" s="125"/>
       <c r="Z2" s="125"/>
     </row>
-    <row r="3" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
       <c r="B3" s="95" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C3" s="96"/>
       <c r="D3" s="22"/>
@@ -2170,9 +2154,9 @@
       <c r="Y3" s="106"/>
       <c r="Z3" s="106"/>
     </row>
-    <row r="4" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
       <c r="B4" s="95" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C4" s="96"/>
       <c r="D4" s="22"/>
@@ -2197,9 +2181,9 @@
       <c r="Y4" s="106"/>
       <c r="Z4" s="106"/>
     </row>
-    <row r="5" spans="1:64" ht="23.55" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
       <c r="B5" s="95" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C5" s="96"/>
       <c r="D5" s="22"/>
@@ -2224,115 +2208,115 @@
       <c r="Y5" s="106"/>
       <c r="Z5" s="106"/>
     </row>
-    <row r="6" spans="1:64" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:64" s="25" customFormat="1" ht="20" x14ac:dyDescent="0.4">
       <c r="A6" s="13"/>
-      <c r="B6" s="132" t="s">
-        <v>60</v>
+      <c r="B6" s="118" t="s">
+        <v>53</v>
       </c>
       <c r="C6" s="108"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:64" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="28"/>
       <c r="E7" s="29"/>
-      <c r="I7" s="131">
+      <c r="I7" s="121">
         <f>I8</f>
         <v>45635</v>
       </c>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129">
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119">
         <f>P8</f>
         <v>45642</v>
       </c>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129">
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119">
         <f>W8</f>
         <v>45649</v>
       </c>
-      <c r="X7" s="129"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="129"/>
-      <c r="AB7" s="129"/>
-      <c r="AC7" s="129"/>
-      <c r="AD7" s="129">
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119">
         <f>AD8</f>
         <v>45656</v>
       </c>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="129"/>
-      <c r="AG7" s="129"/>
-      <c r="AH7" s="129"/>
-      <c r="AI7" s="129"/>
-      <c r="AJ7" s="129"/>
-      <c r="AK7" s="129">
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119">
         <f>AK8</f>
         <v>45663</v>
       </c>
-      <c r="AL7" s="129"/>
-      <c r="AM7" s="129"/>
-      <c r="AN7" s="129"/>
-      <c r="AO7" s="129"/>
-      <c r="AP7" s="129"/>
-      <c r="AQ7" s="129"/>
-      <c r="AR7" s="129">
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="119"/>
+      <c r="AO7" s="119"/>
+      <c r="AP7" s="119"/>
+      <c r="AQ7" s="119"/>
+      <c r="AR7" s="119">
         <f>AR8</f>
         <v>45670</v>
       </c>
-      <c r="AS7" s="129"/>
-      <c r="AT7" s="129"/>
-      <c r="AU7" s="129"/>
-      <c r="AV7" s="129"/>
-      <c r="AW7" s="129"/>
-      <c r="AX7" s="129"/>
-      <c r="AY7" s="129">
+      <c r="AS7" s="119"/>
+      <c r="AT7" s="119"/>
+      <c r="AU7" s="119"/>
+      <c r="AV7" s="119"/>
+      <c r="AW7" s="119"/>
+      <c r="AX7" s="119"/>
+      <c r="AY7" s="119">
         <f>AY8</f>
         <v>45677</v>
       </c>
-      <c r="AZ7" s="129"/>
-      <c r="BA7" s="129"/>
-      <c r="BB7" s="129"/>
-      <c r="BC7" s="129"/>
-      <c r="BD7" s="129"/>
-      <c r="BE7" s="129"/>
-      <c r="BF7" s="129">
+      <c r="AZ7" s="119"/>
+      <c r="BA7" s="119"/>
+      <c r="BB7" s="119"/>
+      <c r="BC7" s="119"/>
+      <c r="BD7" s="119"/>
+      <c r="BE7" s="119"/>
+      <c r="BF7" s="119">
         <f>BF8</f>
         <v>45684</v>
       </c>
-      <c r="BG7" s="129"/>
-      <c r="BH7" s="129"/>
-      <c r="BI7" s="129"/>
-      <c r="BJ7" s="129"/>
-      <c r="BK7" s="129"/>
-      <c r="BL7" s="130"/>
-    </row>
-    <row r="8" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
-      <c r="B8" s="119" t="s">
+      <c r="BG7" s="119"/>
+      <c r="BH7" s="119"/>
+      <c r="BI7" s="119"/>
+      <c r="BJ7" s="119"/>
+      <c r="BK7" s="119"/>
+      <c r="BL7" s="120"/>
+    </row>
+    <row r="8" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="129"/>
+      <c r="B8" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="123" t="s">
+      <c r="C8" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="123" t="s">
+      <c r="F8" s="122" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="30">
@@ -2560,16 +2544,16 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="9" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="118"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
+    <row r="9" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="129"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
       <c r="I9" s="33" t="str">
         <f t="shared" ref="I9:AN9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="J9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -2577,7 +2561,7 @@
       </c>
       <c r="K9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="L9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -2585,19 +2569,19 @@
       </c>
       <c r="M9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="O9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="P9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="Q9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -2605,7 +2589,7 @@
       </c>
       <c r="R9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="S9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -2613,19 +2597,19 @@
       </c>
       <c r="T9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="U9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="V9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="W9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="X9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -2633,7 +2617,7 @@
       </c>
       <c r="Y9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="Z9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -2641,19 +2625,19 @@
       </c>
       <c r="AA9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AB9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AC9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="AD9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AE9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -2661,7 +2645,7 @@
       </c>
       <c r="AF9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AG9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -2669,19 +2653,19 @@
       </c>
       <c r="AH9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AI9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AJ9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="AK9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AL9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -2689,7 +2673,7 @@
       </c>
       <c r="AM9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AN9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -2697,19 +2681,19 @@
       </c>
       <c r="AO9" s="34" t="str">
         <f t="shared" ref="AO9:BL9" si="4">LEFT(TEXT(AO8,"ddd"),1)</f>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AP9" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AQ9" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="AR9" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AS9" s="34" t="str">
         <f t="shared" si="4"/>
@@ -2717,7 +2701,7 @@
       </c>
       <c r="AT9" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AU9" s="34" t="str">
         <f t="shared" si="4"/>
@@ -2725,19 +2709,19 @@
       </c>
       <c r="AV9" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AW9" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AX9" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="AY9" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AZ9" s="34" t="str">
         <f t="shared" si="4"/>
@@ -2745,7 +2729,7 @@
       </c>
       <c r="BA9" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BB9" s="34" t="str">
         <f t="shared" si="4"/>
@@ -2753,19 +2737,19 @@
       </c>
       <c r="BC9" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BD9" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BE9" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="BF9" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BG9" s="34" t="str">
         <f t="shared" si="4"/>
@@ -2773,7 +2757,7 @@
       </c>
       <c r="BH9" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BI9" s="34" t="str">
         <f t="shared" si="4"/>
@@ -2781,18 +2765,18 @@
       </c>
       <c r="BJ9" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BK9" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BL9" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
-      </c>
-    </row>
-    <row r="10" spans="1:64" s="25" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" s="25" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -2862,10 +2846,10 @@
       <c r="BK10" s="38"/>
       <c r="BL10" s="38"/>
     </row>
-    <row r="11" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="41"/>
@@ -2933,13 +2917,13 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="46" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D12" s="48">
         <v>1</v>
@@ -3014,13 +2998,13 @@
       <c r="BK12" s="50"/>
       <c r="BL12" s="50"/>
     </row>
-    <row r="13" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="51" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D13" s="53">
         <v>0.35</v>
@@ -3095,13 +3079,13 @@
       <c r="BK13" s="50"/>
       <c r="BL13" s="50"/>
     </row>
-    <row r="14" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="51" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D14" s="53">
         <v>0.1</v>
@@ -3176,13 +3160,13 @@
       <c r="BK14" s="50"/>
       <c r="BL14" s="50"/>
     </row>
-    <row r="15" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="51" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D15" s="53">
         <v>0.8</v>
@@ -3257,7 +3241,7 @@
       <c r="BK15" s="50"/>
       <c r="BL15" s="50"/>
     </row>
-    <row r="16" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="51"/>
       <c r="C16" s="52"/>
@@ -3323,10 +3307,10 @@
       <c r="BK16" s="50"/>
       <c r="BL16" s="50"/>
     </row>
-    <row r="17" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="56" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="58"/>
@@ -3338,29 +3322,27 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>20</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C18" s="62"/>
       <c r="D18" s="63">
         <v>0.5</v>
       </c>
       <c r="E18" s="64">
-        <f>E16+1</f>
-        <v>1</v>
+        <f>E12</f>
+        <v>45637</v>
       </c>
       <c r="F18" s="64">
-        <f>E18+4</f>
-        <v>5</v>
+        <f>F12+2</f>
+        <v>45646</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I18" s="50"/>
       <c r="J18" s="50"/>
@@ -3419,29 +3401,27 @@
       <c r="BK18" s="50"/>
       <c r="BL18" s="50"/>
     </row>
-    <row r="19" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C19" s="62"/>
       <c r="D19" s="63">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="E19" s="64">
-        <f>E18+2</f>
-        <v>3</v>
+        <f>E12</f>
+        <v>45637</v>
       </c>
       <c r="F19" s="64">
-        <f>E19+5</f>
-        <v>8</v>
+        <f>F18+5</f>
+        <v>45651</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I19" s="50"/>
       <c r="J19" s="50"/>
@@ -3500,27 +3480,21 @@
       <c r="BK19" s="50"/>
       <c r="BL19" s="50"/>
     </row>
-    <row r="20" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64">
-        <f>F19</f>
-        <v>8</v>
-      </c>
-      <c r="F20" s="64">
-        <f>E20+3</f>
-        <v>11</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63">
+        <v>0</v>
+      </c>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="5">
+      <c r="H20" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I20" s="50"/>
       <c r="J20" s="50"/>
@@ -3579,27 +3553,21 @@
       <c r="BK20" s="50"/>
       <c r="BL20" s="50"/>
     </row>
-    <row r="21" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64">
-        <f>E20</f>
-        <v>8</v>
-      </c>
-      <c r="F21" s="64">
-        <f>E21+2</f>
-        <v>10</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63">
+        <v>0</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="5">
+      <c r="H21" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
@@ -3658,27 +3626,21 @@
       <c r="BK21" s="50"/>
       <c r="BL21" s="50"/>
     </row>
-    <row r="22" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
       <c r="B22" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64">
-        <f>E21</f>
-        <v>8</v>
-      </c>
-      <c r="F22" s="64">
-        <f>E22+3</f>
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63">
+        <v>0</v>
+      </c>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="5">
+      <c r="H22" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I22" s="50"/>
       <c r="J22" s="50"/>
@@ -3737,10 +3699,10 @@
       <c r="BK22" s="50"/>
       <c r="BL22" s="50"/>
     </row>
-    <row r="23" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="109" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C23" s="110"/>
       <c r="D23" s="111"/>
@@ -3752,29 +3714,27 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="115" t="s">
-        <v>20</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C24" s="115"/>
       <c r="D24" s="116">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="117">
-        <f>E15+1</f>
-        <v>45638</v>
+        <f>E12</f>
+        <v>45637</v>
       </c>
       <c r="F24" s="117">
-        <f>E24+4</f>
-        <v>45642</v>
+        <f>F12+2</f>
+        <v>45646</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I24" s="50"/>
       <c r="J24" s="50"/>
@@ -3833,29 +3793,27 @@
       <c r="BK24" s="50"/>
       <c r="BL24" s="50"/>
     </row>
-    <row r="25" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
       <c r="B25" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="115" t="s">
-        <v>21</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C25" s="115"/>
       <c r="D25" s="116">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E25" s="117">
-        <f>E24+2</f>
-        <v>45640</v>
+        <f>E24</f>
+        <v>45637</v>
       </c>
       <c r="F25" s="117">
-        <f>E25+5</f>
-        <v>45645</v>
+        <f>F24</f>
+        <v>45646</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I25" s="50"/>
       <c r="J25" s="50"/>
@@ -3914,27 +3872,19 @@
       <c r="BK25" s="50"/>
       <c r="BL25" s="50"/>
     </row>
-    <row r="26" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
       <c r="B26" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="115" t="s">
-        <v>22</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C26" s="115"/>
       <c r="D26" s="116"/>
-      <c r="E26" s="117">
-        <f>F25</f>
-        <v>45645</v>
-      </c>
-      <c r="F26" s="117">
-        <f>E26+3</f>
-        <v>45648</v>
-      </c>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="5">
+      <c r="H26" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I26" s="50"/>
       <c r="J26" s="50"/>
@@ -3993,27 +3943,19 @@
       <c r="BK26" s="50"/>
       <c r="BL26" s="50"/>
     </row>
-    <row r="27" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13"/>
       <c r="B27" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="115" t="s">
-        <v>23</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C27" s="115"/>
       <c r="D27" s="116"/>
-      <c r="E27" s="117">
-        <f>E26</f>
-        <v>45645</v>
-      </c>
-      <c r="F27" s="117">
-        <f>E27+2</f>
-        <v>45647</v>
-      </c>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="5">
+      <c r="H27" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="I27" s="50"/>
       <c r="J27" s="50"/>
@@ -4072,27 +4014,19 @@
       <c r="BK27" s="50"/>
       <c r="BL27" s="50"/>
     </row>
-    <row r="28" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
       <c r="B28" s="114" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="115" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C28" s="115"/>
       <c r="D28" s="116"/>
-      <c r="E28" s="117">
-        <f>E27</f>
-        <v>45645</v>
-      </c>
-      <c r="F28" s="117">
-        <f>E28+3</f>
-        <v>45648</v>
-      </c>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="5">
+      <c r="H28" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
@@ -4151,10 +4085,10 @@
       <c r="BK28" s="50"/>
       <c r="BL28" s="50"/>
     </row>
-    <row r="29" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
       <c r="B29" s="65" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C29" s="66"/>
       <c r="D29" s="67"/>
@@ -4222,29 +4156,21 @@
       <c r="BK29" s="70"/>
       <c r="BL29" s="70"/>
     </row>
-    <row r="30" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="72" t="s">
-        <v>20</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C30" s="72"/>
       <c r="D30" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="74">
-        <f>E12+15</f>
-        <v>45652</v>
-      </c>
-      <c r="F30" s="74">
-        <f>E30+5</f>
-        <v>45657</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="5">
+      <c r="H30" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I30" s="50"/>
       <c r="J30" s="50"/>
@@ -4303,29 +4229,21 @@
       <c r="BK30" s="50"/>
       <c r="BL30" s="50"/>
     </row>
-    <row r="31" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="72" t="s">
-        <v>21</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C31" s="72"/>
       <c r="D31" s="73">
-        <v>0.6</v>
-      </c>
-      <c r="E31" s="74">
-        <f>F30+1</f>
-        <v>45658</v>
-      </c>
-      <c r="F31" s="74">
-        <f>E31+4</f>
-        <v>45662</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="5">
+      <c r="H31" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I31" s="50"/>
       <c r="J31" s="50"/>
@@ -4384,29 +4302,21 @@
       <c r="BK31" s="50"/>
       <c r="BL31" s="50"/>
     </row>
-    <row r="32" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
       <c r="B32" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="72" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C32" s="72"/>
       <c r="D32" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="74">
-        <f>E31+5</f>
-        <v>45663</v>
-      </c>
-      <c r="F32" s="74">
-        <f>E32+5</f>
-        <v>45668</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="5">
+      <c r="H32" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I32" s="50"/>
       <c r="J32" s="50"/>
@@ -4465,29 +4375,21 @@
       <c r="BK32" s="50"/>
       <c r="BL32" s="50"/>
     </row>
-    <row r="33" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13"/>
       <c r="B33" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="72" t="s">
-        <v>23</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C33" s="72"/>
       <c r="D33" s="73">
-        <v>0.25</v>
-      </c>
-      <c r="E33" s="74">
-        <f>F32+1</f>
-        <v>45669</v>
-      </c>
-      <c r="F33" s="74">
-        <f>E33+4</f>
-        <v>45673</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="5">
+      <c r="H33" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I33" s="50"/>
       <c r="J33" s="50"/>
@@ -4546,29 +4448,21 @@
       <c r="BK33" s="50"/>
       <c r="BL33" s="50"/>
     </row>
-    <row r="34" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="72" t="s">
-        <v>24</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C34" s="72"/>
       <c r="D34" s="73">
-        <v>0.25</v>
-      </c>
-      <c r="E34" s="74">
-        <f>E32</f>
-        <v>45663</v>
-      </c>
-      <c r="F34" s="74">
-        <f>E34+4</f>
-        <v>45667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="5">
+      <c r="H34" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I34" s="50"/>
       <c r="J34" s="50"/>
@@ -4627,10 +4521,10 @@
       <c r="BK34" s="50"/>
       <c r="BL34" s="50"/>
     </row>
-    <row r="35" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="75" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="77"/>
@@ -4698,29 +4592,21 @@
       <c r="BK35" s="80"/>
       <c r="BL35" s="80"/>
     </row>
-    <row r="36" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
       <c r="B36" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="82" t="s">
-        <v>20</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C36" s="82"/>
       <c r="D36" s="83">
-        <v>0.25</v>
-      </c>
-      <c r="E36" s="84">
-        <f>E30+2</f>
-        <v>45654</v>
-      </c>
-      <c r="F36" s="84">
-        <f>E36+3</f>
-        <v>45657</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="5">
+      <c r="H36" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I36" s="50"/>
       <c r="J36" s="50"/>
@@ -4779,29 +4665,21 @@
       <c r="BK36" s="50"/>
       <c r="BL36" s="50"/>
     </row>
-    <row r="37" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="82" t="s">
-        <v>21</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C37" s="82"/>
       <c r="D37" s="83">
-        <v>0.25</v>
-      </c>
-      <c r="E37" s="84">
-        <f>F36</f>
-        <v>45657</v>
-      </c>
-      <c r="F37" s="84">
-        <f>E37+4</f>
-        <v>45661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="5">
+      <c r="H37" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I37" s="50"/>
       <c r="J37" s="50"/>
@@ -4860,29 +4738,21 @@
       <c r="BK37" s="50"/>
       <c r="BL37" s="50"/>
     </row>
-    <row r="38" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="82" t="s">
-        <v>22</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C38" s="82"/>
       <c r="D38" s="83">
-        <v>0.5</v>
-      </c>
-      <c r="E38" s="84">
-        <f>F37+1</f>
-        <v>45662</v>
-      </c>
-      <c r="F38" s="84">
-        <f>E38+3</f>
-        <v>45665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="5">
+      <c r="H38" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I38" s="50"/>
       <c r="J38" s="50"/>
@@ -4941,7 +4811,7 @@
       <c r="BK38" s="50"/>
       <c r="BL38" s="50"/>
     </row>
-    <row r="39" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="81"/>
       <c r="C39" s="82"/>
@@ -5007,7 +4877,7 @@
       <c r="BK39" s="50"/>
       <c r="BL39" s="50"/>
     </row>
-    <row r="40" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="81"/>
       <c r="C40" s="82"/>
@@ -5073,7 +4943,7 @@
       <c r="BK40" s="50"/>
       <c r="BL40" s="50"/>
     </row>
-    <row r="41" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
       <c r="B41" s="85"/>
       <c r="C41" s="86"/>
@@ -5142,7 +5012,7 @@
       <c r="BK41" s="44"/>
       <c r="BL41" s="44"/>
     </row>
-    <row r="42" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="89" t="s">
         <v>0</v>
@@ -5213,18 +5083,28 @@
       <c r="BK42" s="94"/>
       <c r="BL42" s="94"/>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="16"/>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="P7:V7"/>
@@ -5233,16 +5113,6 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="23">
@@ -5259,39 +5129,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL40">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL16">
-    <cfRule type="expression" dxfId="25" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL22 I24:BL28">
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL34">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL40">
-    <cfRule type="expression" dxfId="19" priority="36">
+    <cfRule type="expression" dxfId="20" priority="36">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5318,9 +5188,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F21 F31:F32 E32 F37" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -5346,33 +5213,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF88A59-0BC6-4F1D-BBC0-DC84D3DD81E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CE18CC-DF28-40EE-A125-E9C29BB4A753}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" topLeftCell="A3" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="51.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" customWidth="1"/>
-    <col min="7" max="7" width="2.69921875" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.69921875" customWidth="1"/>
+    <col min="9" max="65" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.45">
+    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.7">
       <c r="A1" s="14"/>
       <c r="B1" s="97" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
@@ -5380,7 +5247,7 @@
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
       <c r="I1" s="127" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J1" s="128"/>
       <c r="K1" s="128"/>
@@ -5390,7 +5257,7 @@
       <c r="O1" s="128"/>
       <c r="P1" s="24"/>
       <c r="Q1" s="126">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="R1" s="125"/>
       <c r="S1" s="125"/>
@@ -5402,16 +5269,16 @@
       <c r="Y1" s="125"/>
       <c r="Z1" s="125"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B2" s="95" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C2" s="96"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
       <c r="I2" s="127" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
@@ -5433,9 +5300,9 @@
       <c r="Y2" s="125"/>
       <c r="Z2" s="125"/>
     </row>
-    <row r="3" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
       <c r="B3" s="95" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C3" s="96"/>
       <c r="D3" s="22"/>
@@ -5460,9 +5327,9 @@
       <c r="Y3" s="106"/>
       <c r="Z3" s="106"/>
     </row>
-    <row r="4" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
       <c r="B4" s="95" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C4" s="96"/>
       <c r="D4" s="22"/>
@@ -5487,9 +5354,9 @@
       <c r="Y4" s="106"/>
       <c r="Z4" s="106"/>
     </row>
-    <row r="5" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
       <c r="B5" s="95" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C5" s="96"/>
       <c r="D5" s="22"/>
@@ -5514,115 +5381,115 @@
       <c r="Y5" s="106"/>
       <c r="Z5" s="106"/>
     </row>
-    <row r="6" spans="1:64" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:64" s="25" customFormat="1" ht="20" x14ac:dyDescent="0.4">
       <c r="A6" s="13"/>
-      <c r="B6" s="132" t="s">
-        <v>60</v>
+      <c r="B6" s="118" t="s">
+        <v>53</v>
       </c>
       <c r="C6" s="108"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:64" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="28"/>
       <c r="E7" s="29"/>
-      <c r="I7" s="131">
+      <c r="I7" s="121">
         <f>I8</f>
         <v>45635</v>
       </c>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129">
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119">
         <f>P8</f>
         <v>45642</v>
       </c>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129">
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119">
         <f>W8</f>
         <v>45649</v>
       </c>
-      <c r="X7" s="129"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="129"/>
-      <c r="AB7" s="129"/>
-      <c r="AC7" s="129"/>
-      <c r="AD7" s="129">
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119">
         <f>AD8</f>
         <v>45656</v>
       </c>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="129"/>
-      <c r="AG7" s="129"/>
-      <c r="AH7" s="129"/>
-      <c r="AI7" s="129"/>
-      <c r="AJ7" s="129"/>
-      <c r="AK7" s="129">
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119">
         <f>AK8</f>
         <v>45663</v>
       </c>
-      <c r="AL7" s="129"/>
-      <c r="AM7" s="129"/>
-      <c r="AN7" s="129"/>
-      <c r="AO7" s="129"/>
-      <c r="AP7" s="129"/>
-      <c r="AQ7" s="129"/>
-      <c r="AR7" s="129">
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="119"/>
+      <c r="AO7" s="119"/>
+      <c r="AP7" s="119"/>
+      <c r="AQ7" s="119"/>
+      <c r="AR7" s="119">
         <f>AR8</f>
         <v>45670</v>
       </c>
-      <c r="AS7" s="129"/>
-      <c r="AT7" s="129"/>
-      <c r="AU7" s="129"/>
-      <c r="AV7" s="129"/>
-      <c r="AW7" s="129"/>
-      <c r="AX7" s="129"/>
-      <c r="AY7" s="129">
+      <c r="AS7" s="119"/>
+      <c r="AT7" s="119"/>
+      <c r="AU7" s="119"/>
+      <c r="AV7" s="119"/>
+      <c r="AW7" s="119"/>
+      <c r="AX7" s="119"/>
+      <c r="AY7" s="119">
         <f>AY8</f>
         <v>45677</v>
       </c>
-      <c r="AZ7" s="129"/>
-      <c r="BA7" s="129"/>
-      <c r="BB7" s="129"/>
-      <c r="BC7" s="129"/>
-      <c r="BD7" s="129"/>
-      <c r="BE7" s="129"/>
-      <c r="BF7" s="129">
+      <c r="AZ7" s="119"/>
+      <c r="BA7" s="119"/>
+      <c r="BB7" s="119"/>
+      <c r="BC7" s="119"/>
+      <c r="BD7" s="119"/>
+      <c r="BE7" s="119"/>
+      <c r="BF7" s="119">
         <f>BF8</f>
         <v>45684</v>
       </c>
-      <c r="BG7" s="129"/>
-      <c r="BH7" s="129"/>
-      <c r="BI7" s="129"/>
-      <c r="BJ7" s="129"/>
-      <c r="BK7" s="129"/>
-      <c r="BL7" s="130"/>
-    </row>
-    <row r="8" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
-      <c r="B8" s="119" t="s">
+      <c r="BG7" s="119"/>
+      <c r="BH7" s="119"/>
+      <c r="BI7" s="119"/>
+      <c r="BJ7" s="119"/>
+      <c r="BK7" s="119"/>
+      <c r="BL7" s="120"/>
+    </row>
+    <row r="8" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="129"/>
+      <c r="B8" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="123" t="s">
+      <c r="C8" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="123" t="s">
+      <c r="F8" s="122" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="30">
@@ -5850,16 +5717,16 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="9" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="118"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
+    <row r="9" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="129"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
       <c r="I9" s="33" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="J9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -5867,7 +5734,7 @@
       </c>
       <c r="K9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="L9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -5875,19 +5742,19 @@
       </c>
       <c r="M9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="O9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="P9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="Q9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -5895,7 +5762,7 @@
       </c>
       <c r="R9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="S9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -5903,19 +5770,19 @@
       </c>
       <c r="T9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="U9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="V9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="W9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="X9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -5923,7 +5790,7 @@
       </c>
       <c r="Y9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="Z9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -5931,19 +5798,19 @@
       </c>
       <c r="AA9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AB9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AC9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="AD9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AE9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -5951,7 +5818,7 @@
       </c>
       <c r="AF9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AG9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -5959,19 +5826,19 @@
       </c>
       <c r="AH9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AI9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AJ9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="AK9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AL9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -5979,7 +5846,7 @@
       </c>
       <c r="AM9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AN9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -5987,19 +5854,19 @@
       </c>
       <c r="AO9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AP9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AQ9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="AR9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AS9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -6007,7 +5874,7 @@
       </c>
       <c r="AT9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AU9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -6015,19 +5882,19 @@
       </c>
       <c r="AV9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AW9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AX9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="AY9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AZ9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -6035,7 +5902,7 @@
       </c>
       <c r="BA9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BB9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -6043,19 +5910,19 @@
       </c>
       <c r="BC9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BD9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BE9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="BF9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BG9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -6063,7 +5930,7 @@
       </c>
       <c r="BH9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BI9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -6071,18 +5938,18 @@
       </c>
       <c r="BJ9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BK9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BL9" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-    </row>
-    <row r="10" spans="1:64" s="25" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" s="25" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -6152,10 +6019,10 @@
       <c r="BK10" s="38"/>
       <c r="BL10" s="38"/>
     </row>
-    <row r="11" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="41"/>
@@ -6223,29 +6090,29 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="46" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D12" s="48">
         <v>1</v>
       </c>
       <c r="E12" s="49">
         <f>Project_Start</f>
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="F12" s="49">
-        <f>E12+6</f>
-        <v>45642</v>
+        <f>E12+7</f>
+        <v>45644</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="5">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
@@ -6304,27 +6171,29 @@
       <c r="BK12" s="50"/>
       <c r="BL12" s="50"/>
     </row>
-    <row r="13" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="51" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="53"/>
+        <v>55</v>
+      </c>
+      <c r="D13" s="53">
+        <v>0.8</v>
+      </c>
       <c r="E13" s="54">
-        <f>F12</f>
-        <v>45642</v>
+        <f>Project_Start</f>
+        <v>45637</v>
       </c>
       <c r="F13" s="54">
-        <f>E13+2</f>
-        <v>45644</v>
+        <f>E13+14</f>
+        <v>45651</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
@@ -6383,29 +6252,29 @@
       <c r="BK13" s="50"/>
       <c r="BL13" s="50"/>
     </row>
-    <row r="14" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="51" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D14" s="53">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E14" s="54">
-        <f>F13</f>
-        <v>45644</v>
+        <f>E13+3</f>
+        <v>45640</v>
       </c>
       <c r="F14" s="54">
-        <f>E14+4</f>
-        <v>45648</v>
+        <f>E14+20</f>
+        <v>45660</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I14" s="50"/>
       <c r="J14" s="50"/>
@@ -6464,29 +6333,29 @@
       <c r="BK14" s="50"/>
       <c r="BL14" s="50"/>
     </row>
-    <row r="15" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="51" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D15" s="53">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E15" s="54">
-        <f>F14</f>
-        <v>45648</v>
+        <f>E12</f>
+        <v>45637</v>
       </c>
       <c r="F15" s="54">
-        <f>E15+5</f>
-        <v>45653</v>
+        <f>F12</f>
+        <v>45644</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
@@ -6545,7 +6414,7 @@
       <c r="BK15" s="50"/>
       <c r="BL15" s="50"/>
     </row>
-    <row r="16" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="51"/>
       <c r="C16" s="52"/>
@@ -6611,10 +6480,10 @@
       <c r="BK16" s="50"/>
       <c r="BL16" s="50"/>
     </row>
-    <row r="17" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="56" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="58"/>
@@ -6626,29 +6495,27 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>20</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C18" s="62"/>
       <c r="D18" s="63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="64">
-        <f>E16+1</f>
-        <v>1</v>
+        <f>E12</f>
+        <v>45637</v>
       </c>
       <c r="F18" s="64">
-        <f>E18+4</f>
-        <v>5</v>
+        <f>F12+2</f>
+        <v>45646</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I18" s="50"/>
       <c r="J18" s="50"/>
@@ -6707,29 +6574,27 @@
       <c r="BK18" s="50"/>
       <c r="BL18" s="50"/>
     </row>
-    <row r="19" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C19" s="62"/>
       <c r="D19" s="63">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E19" s="64">
-        <f>E18+2</f>
-        <v>3</v>
+        <f>E12</f>
+        <v>45637</v>
       </c>
       <c r="F19" s="64">
-        <f>E19+5</f>
-        <v>8</v>
+        <f>F18+5</f>
+        <v>45651</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I19" s="50"/>
       <c r="J19" s="50"/>
@@ -6788,27 +6653,25 @@
       <c r="BK19" s="50"/>
       <c r="BL19" s="50"/>
     </row>
-    <row r="20" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="63"/>
+        <v>30</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63">
+        <v>0.35</v>
+      </c>
       <c r="E20" s="64">
-        <f>F19</f>
-        <v>8</v>
+        <v>45644</v>
       </c>
       <c r="F20" s="64">
-        <f>E20+3</f>
-        <v>11</v>
+        <v>45655</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I20" s="50"/>
       <c r="J20" s="50"/>
@@ -6867,27 +6730,21 @@
       <c r="BK20" s="50"/>
       <c r="BL20" s="50"/>
     </row>
-    <row r="21" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64">
-        <f>E20</f>
-        <v>8</v>
-      </c>
-      <c r="F21" s="64">
-        <f>E21+2</f>
-        <v>10</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63">
+        <v>0</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="5">
+      <c r="H21" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
@@ -6946,27 +6803,21 @@
       <c r="BK21" s="50"/>
       <c r="BL21" s="50"/>
     </row>
-    <row r="22" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
       <c r="B22" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64">
-        <f>E21</f>
-        <v>8</v>
-      </c>
-      <c r="F22" s="64">
-        <f>E22+3</f>
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63">
+        <v>0</v>
+      </c>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="5">
+      <c r="H22" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I22" s="50"/>
       <c r="J22" s="50"/>
@@ -7025,10 +6876,10 @@
       <c r="BK22" s="50"/>
       <c r="BL22" s="50"/>
     </row>
-    <row r="23" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="109" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C23" s="110"/>
       <c r="D23" s="111"/>
@@ -7040,29 +6891,27 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="115" t="s">
-        <v>20</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C24" s="115"/>
       <c r="D24" s="116">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E24" s="117">
-        <f>E15+1</f>
-        <v>45649</v>
+        <f>E12</f>
+        <v>45637</v>
       </c>
       <c r="F24" s="117">
-        <f>E24+4</f>
-        <v>45653</v>
+        <f>F12+4</f>
+        <v>45648</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I24" s="50"/>
       <c r="J24" s="50"/>
@@ -7121,29 +6970,27 @@
       <c r="BK24" s="50"/>
       <c r="BL24" s="50"/>
     </row>
-    <row r="25" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
       <c r="B25" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="115" t="s">
-        <v>21</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C25" s="115"/>
       <c r="D25" s="116">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E25" s="117">
-        <f>E24+2</f>
-        <v>45651</v>
+        <f>E24</f>
+        <v>45637</v>
       </c>
       <c r="F25" s="117">
-        <f>E25+5</f>
-        <v>45656</v>
+        <f>F24+2</f>
+        <v>45650</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I25" s="50"/>
       <c r="J25" s="50"/>
@@ -7202,27 +7049,25 @@
       <c r="BK25" s="50"/>
       <c r="BL25" s="50"/>
     </row>
-    <row r="26" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
       <c r="B26" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="115" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="116"/>
+        <v>46</v>
+      </c>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116">
+        <v>0.3</v>
+      </c>
       <c r="E26" s="117">
-        <f>F25</f>
-        <v>45656</v>
+        <v>45644</v>
       </c>
       <c r="F26" s="117">
-        <f>E26+3</f>
         <v>45659</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I26" s="50"/>
       <c r="J26" s="50"/>
@@ -7281,27 +7126,27 @@
       <c r="BK26" s="50"/>
       <c r="BL26" s="50"/>
     </row>
-    <row r="27" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13"/>
       <c r="B27" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="116"/>
+        <v>47</v>
+      </c>
+      <c r="C27" s="115"/>
+      <c r="D27" s="116">
+        <v>0.3</v>
+      </c>
       <c r="E27" s="117">
         <f>E26</f>
-        <v>45656</v>
+        <v>45644</v>
       </c>
       <c r="F27" s="117">
-        <f>E27+2</f>
-        <v>45658</v>
+        <f>F26</f>
+        <v>45659</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I27" s="50"/>
       <c r="J27" s="50"/>
@@ -7360,27 +7205,21 @@
       <c r="BK27" s="50"/>
       <c r="BL27" s="50"/>
     </row>
-    <row r="28" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
       <c r="B28" s="114" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="117">
-        <f>E27</f>
-        <v>45656</v>
-      </c>
-      <c r="F28" s="117">
-        <f>E28+3</f>
-        <v>45659</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C28" s="115"/>
+      <c r="D28" s="116">
+        <v>0</v>
+      </c>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="5">
+      <c r="H28" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
@@ -7439,10 +7278,10 @@
       <c r="BK28" s="50"/>
       <c r="BL28" s="50"/>
     </row>
-    <row r="29" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
       <c r="B29" s="65" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C29" s="66"/>
       <c r="D29" s="67"/>
@@ -7510,29 +7349,21 @@
       <c r="BK29" s="70"/>
       <c r="BL29" s="70"/>
     </row>
-    <row r="30" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="72" t="s">
-        <v>20</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C30" s="72"/>
       <c r="D30" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="74">
-        <f>E12+15</f>
-        <v>45651</v>
-      </c>
-      <c r="F30" s="74">
-        <f>E30+5</f>
-        <v>45656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="5">
+      <c r="H30" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I30" s="50"/>
       <c r="J30" s="50"/>
@@ -7591,29 +7422,25 @@
       <c r="BK30" s="50"/>
       <c r="BL30" s="50"/>
     </row>
-    <row r="31" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="72" t="s">
-        <v>21</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C31" s="72"/>
       <c r="D31" s="73">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
       <c r="E31" s="74">
-        <f>F30+1</f>
-        <v>45657</v>
+        <v>45644</v>
       </c>
       <c r="F31" s="74">
-        <f>E31+4</f>
-        <v>45661</v>
+        <v>45669</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I31" s="50"/>
       <c r="J31" s="50"/>
@@ -7672,29 +7499,21 @@
       <c r="BK31" s="50"/>
       <c r="BL31" s="50"/>
     </row>
-    <row r="32" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
       <c r="B32" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="72" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C32" s="72"/>
       <c r="D32" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="74">
-        <f>E31+5</f>
-        <v>45662</v>
-      </c>
-      <c r="F32" s="74">
-        <f>E32+5</f>
-        <v>45667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="5">
+      <c r="H32" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I32" s="50"/>
       <c r="J32" s="50"/>
@@ -7753,29 +7572,21 @@
       <c r="BK32" s="50"/>
       <c r="BL32" s="50"/>
     </row>
-    <row r="33" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13"/>
       <c r="B33" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="72" t="s">
-        <v>23</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C33" s="72"/>
       <c r="D33" s="73">
-        <v>0.25</v>
-      </c>
-      <c r="E33" s="74">
-        <f>F32+1</f>
-        <v>45668</v>
-      </c>
-      <c r="F33" s="74">
-        <f>E33+4</f>
-        <v>45672</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="5">
+      <c r="H33" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I33" s="50"/>
       <c r="J33" s="50"/>
@@ -7834,29 +7645,21 @@
       <c r="BK33" s="50"/>
       <c r="BL33" s="50"/>
     </row>
-    <row r="34" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="72" t="s">
-        <v>24</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C34" s="72"/>
       <c r="D34" s="73">
-        <v>0.25</v>
-      </c>
-      <c r="E34" s="74">
-        <f>E32</f>
-        <v>45662</v>
-      </c>
-      <c r="F34" s="74">
-        <f>E34+4</f>
-        <v>45666</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="5">
+      <c r="H34" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I34" s="50"/>
       <c r="J34" s="50"/>
@@ -7915,10 +7718,10 @@
       <c r="BK34" s="50"/>
       <c r="BL34" s="50"/>
     </row>
-    <row r="35" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="75" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="77"/>
@@ -7986,29 +7789,21 @@
       <c r="BK35" s="80"/>
       <c r="BL35" s="80"/>
     </row>
-    <row r="36" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
       <c r="B36" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="82" t="s">
-        <v>20</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C36" s="82"/>
       <c r="D36" s="83">
-        <v>0.25</v>
-      </c>
-      <c r="E36" s="84">
-        <f>E30+2</f>
-        <v>45653</v>
-      </c>
-      <c r="F36" s="84">
-        <f>E36+3</f>
-        <v>45656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="5">
+      <c r="H36" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I36" s="50"/>
       <c r="J36" s="50"/>
@@ -8067,29 +7862,21 @@
       <c r="BK36" s="50"/>
       <c r="BL36" s="50"/>
     </row>
-    <row r="37" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="82" t="s">
-        <v>21</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C37" s="82"/>
       <c r="D37" s="83">
-        <v>0.25</v>
-      </c>
-      <c r="E37" s="84">
-        <f>F36</f>
-        <v>45656</v>
-      </c>
-      <c r="F37" s="84">
-        <f>E37+4</f>
-        <v>45660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="5">
+      <c r="H37" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I37" s="50"/>
       <c r="J37" s="50"/>
@@ -8148,29 +7935,21 @@
       <c r="BK37" s="50"/>
       <c r="BL37" s="50"/>
     </row>
-    <row r="38" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="82" t="s">
-        <v>22</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C38" s="82"/>
       <c r="D38" s="83">
-        <v>0.5</v>
-      </c>
-      <c r="E38" s="84">
-        <f>F37+1</f>
-        <v>45661</v>
-      </c>
-      <c r="F38" s="84">
-        <f>E38+3</f>
-        <v>45664</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="5">
+      <c r="H38" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I38" s="50"/>
       <c r="J38" s="50"/>
@@ -8229,7 +8008,7 @@
       <c r="BK38" s="50"/>
       <c r="BL38" s="50"/>
     </row>
-    <row r="39" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="81"/>
       <c r="C39" s="82"/>
@@ -8295,7 +8074,7 @@
       <c r="BK39" s="50"/>
       <c r="BL39" s="50"/>
     </row>
-    <row r="40" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="81"/>
       <c r="C40" s="82"/>
@@ -8361,7 +8140,7 @@
       <c r="BK40" s="50"/>
       <c r="BL40" s="50"/>
     </row>
-    <row r="41" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
       <c r="B41" s="85"/>
       <c r="C41" s="86"/>
@@ -8430,7 +8209,7 @@
       <c r="BK41" s="44"/>
       <c r="BL41" s="44"/>
     </row>
-    <row r="42" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="89" t="s">
         <v>0</v>
@@ -8501,14 +8280,14 @@
       <c r="BK42" s="94"/>
       <c r="BL42" s="94"/>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="16"/>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="4"/>
     </row>
   </sheetData>
@@ -8541,7 +8320,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{66285CC2-2069-425E-8A74-74755A3669F6}</x14:id>
+          <x14:id>{F6BD16EA-0DA1-40D5-9F2B-606F1C998DAA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8584,19 +8363,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A42" xr:uid="{92F54C38-6241-4FB7-9992-B4EB4F45AC6E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A35" xr:uid="{8AAFAE21-37F2-46EA-AD38-4AD81C925056}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A29" xr:uid="{983CEABD-5550-4D76-A02F-DB688FEE9792}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A17 A23" xr:uid="{245A025A-6EFC-4308-BA12-2A01A3111BFD}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A13" xr:uid="{4CA985E7-5F10-4B26-A2D5-FAD742183F0D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A12" xr:uid="{267E73CA-771C-4BA1-9A45-F63047187975}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A11" xr:uid="{83D141B1-F878-476B-8CE3-19F031682E25}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A8:A9" xr:uid="{C03EA20D-1BF7-4884-A1C7-81BCF91BE645}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A7" xr:uid="{CD2DB139-0AAC-433C-9E1F-39FB052BF764}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A6" xr:uid="{0A487D39-9AEE-4244-8679-5C6602094960}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2:A5" xr:uid="{91067A5E-86A7-4BAF-94F9-1325D22B533C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1" xr:uid="{66C1A260-01F4-4809-97FC-79F416B4C0F2}"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2:Q5" xr:uid="{BEEC92A1-A2CC-40F7-AAF4-152D8F0CA6A2}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A42" xr:uid="{D48DE17F-A8C4-4755-8678-A51027DFB431}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A35" xr:uid="{9E8D56A8-B57C-4784-95E4-904850FD9FC7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A29" xr:uid="{ABA6C676-B930-411C-9A2E-CC3067743F0B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A17 A23" xr:uid="{D86EDF31-ADCB-4737-8CAB-2E9B98978CC4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A13" xr:uid="{8C923BA9-B798-47A0-A14D-CA6654BD21A2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A12" xr:uid="{A36DA72E-DA60-4291-9466-D32A26BAA626}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A11" xr:uid="{AAF24D0A-C473-40FD-8D38-465D267AB5DC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A8:A9" xr:uid="{8B28C834-92CA-49AA-9051-34218933DC77}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A7" xr:uid="{8E71C527-895E-4193-9172-1F1C960B9B4C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A6" xr:uid="{0F1B97A8-CF42-4B74-B620-01EECD080F35}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2:A5" xr:uid="{07B8E32E-570B-4857-A032-DFF9BCDFAA4E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1" xr:uid="{404B70B8-088E-408E-AAD7-13736D97456A}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2:Q5" xr:uid="{55348DFA-EDF7-400D-B3CF-A93A74ADEAEA}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -8610,7 +8389,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{66285CC2-2069-425E-8A74-74755A3669F6}">
+          <x14:cfRule type="dataBar" id="{F6BD16EA-0DA1-40D5-9F2B-606F1C998DAA}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8631,33 +8410,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC714830-712A-4AA2-B613-1AC251A58767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB1ABD6-CBD4-4CF9-85DD-1F4E5A79AB22}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" topLeftCell="A3" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="51.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" customWidth="1"/>
-    <col min="7" max="7" width="2.69921875" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.69921875" customWidth="1"/>
+    <col min="9" max="65" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.45">
+    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.7">
       <c r="A1" s="14"/>
       <c r="B1" s="97" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
@@ -8665,7 +8444,7 @@
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
       <c r="I1" s="127" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J1" s="128"/>
       <c r="K1" s="128"/>
@@ -8675,7 +8454,7 @@
       <c r="O1" s="128"/>
       <c r="P1" s="24"/>
       <c r="Q1" s="126">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="R1" s="125"/>
       <c r="S1" s="125"/>
@@ -8687,16 +8466,16 @@
       <c r="Y1" s="125"/>
       <c r="Z1" s="125"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B2" s="95" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C2" s="96"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
       <c r="I2" s="127" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
@@ -8718,9 +8497,9 @@
       <c r="Y2" s="125"/>
       <c r="Z2" s="125"/>
     </row>
-    <row r="3" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
       <c r="B3" s="95" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C3" s="96"/>
       <c r="D3" s="22"/>
@@ -8745,9 +8524,9 @@
       <c r="Y3" s="106"/>
       <c r="Z3" s="106"/>
     </row>
-    <row r="4" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
       <c r="B4" s="95" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C4" s="96"/>
       <c r="D4" s="22"/>
@@ -8772,9 +8551,9 @@
       <c r="Y4" s="106"/>
       <c r="Z4" s="106"/>
     </row>
-    <row r="5" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
       <c r="B5" s="95" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C5" s="96"/>
       <c r="D5" s="22"/>
@@ -8799,115 +8578,115 @@
       <c r="Y5" s="106"/>
       <c r="Z5" s="106"/>
     </row>
-    <row r="6" spans="1:64" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:64" s="25" customFormat="1" ht="20" x14ac:dyDescent="0.4">
       <c r="A6" s="13"/>
-      <c r="B6" s="132" t="s">
-        <v>60</v>
+      <c r="B6" s="118" t="s">
+        <v>53</v>
       </c>
       <c r="C6" s="108"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:64" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="28"/>
       <c r="E7" s="29"/>
-      <c r="I7" s="131">
+      <c r="I7" s="121">
         <f>I8</f>
         <v>45635</v>
       </c>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129">
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119">
         <f>P8</f>
         <v>45642</v>
       </c>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129">
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119">
         <f>W8</f>
         <v>45649</v>
       </c>
-      <c r="X7" s="129"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="129"/>
-      <c r="AB7" s="129"/>
-      <c r="AC7" s="129"/>
-      <c r="AD7" s="129">
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119">
         <f>AD8</f>
         <v>45656</v>
       </c>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="129"/>
-      <c r="AG7" s="129"/>
-      <c r="AH7" s="129"/>
-      <c r="AI7" s="129"/>
-      <c r="AJ7" s="129"/>
-      <c r="AK7" s="129">
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119">
         <f>AK8</f>
         <v>45663</v>
       </c>
-      <c r="AL7" s="129"/>
-      <c r="AM7" s="129"/>
-      <c r="AN7" s="129"/>
-      <c r="AO7" s="129"/>
-      <c r="AP7" s="129"/>
-      <c r="AQ7" s="129"/>
-      <c r="AR7" s="129">
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="119"/>
+      <c r="AO7" s="119"/>
+      <c r="AP7" s="119"/>
+      <c r="AQ7" s="119"/>
+      <c r="AR7" s="119">
         <f>AR8</f>
         <v>45670</v>
       </c>
-      <c r="AS7" s="129"/>
-      <c r="AT7" s="129"/>
-      <c r="AU7" s="129"/>
-      <c r="AV7" s="129"/>
-      <c r="AW7" s="129"/>
-      <c r="AX7" s="129"/>
-      <c r="AY7" s="129">
+      <c r="AS7" s="119"/>
+      <c r="AT7" s="119"/>
+      <c r="AU7" s="119"/>
+      <c r="AV7" s="119"/>
+      <c r="AW7" s="119"/>
+      <c r="AX7" s="119"/>
+      <c r="AY7" s="119">
         <f>AY8</f>
         <v>45677</v>
       </c>
-      <c r="AZ7" s="129"/>
-      <c r="BA7" s="129"/>
-      <c r="BB7" s="129"/>
-      <c r="BC7" s="129"/>
-      <c r="BD7" s="129"/>
-      <c r="BE7" s="129"/>
-      <c r="BF7" s="129">
+      <c r="AZ7" s="119"/>
+      <c r="BA7" s="119"/>
+      <c r="BB7" s="119"/>
+      <c r="BC7" s="119"/>
+      <c r="BD7" s="119"/>
+      <c r="BE7" s="119"/>
+      <c r="BF7" s="119">
         <f>BF8</f>
         <v>45684</v>
       </c>
-      <c r="BG7" s="129"/>
-      <c r="BH7" s="129"/>
-      <c r="BI7" s="129"/>
-      <c r="BJ7" s="129"/>
-      <c r="BK7" s="129"/>
-      <c r="BL7" s="130"/>
-    </row>
-    <row r="8" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
-      <c r="B8" s="119" t="s">
+      <c r="BG7" s="119"/>
+      <c r="BH7" s="119"/>
+      <c r="BI7" s="119"/>
+      <c r="BJ7" s="119"/>
+      <c r="BK7" s="119"/>
+      <c r="BL7" s="120"/>
+    </row>
+    <row r="8" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="129"/>
+      <c r="B8" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="123" t="s">
+      <c r="C8" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="123" t="s">
+      <c r="F8" s="122" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="30">
@@ -9135,16 +8914,16 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="9" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="118"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
+    <row r="9" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="129"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
       <c r="I9" s="33" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="J9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -9152,7 +8931,7 @@
       </c>
       <c r="K9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="L9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -9160,19 +8939,19 @@
       </c>
       <c r="M9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="O9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="P9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="Q9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -9180,7 +8959,7 @@
       </c>
       <c r="R9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="S9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -9188,19 +8967,19 @@
       </c>
       <c r="T9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="U9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="V9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="W9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="X9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -9208,7 +8987,7 @@
       </c>
       <c r="Y9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="Z9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -9216,19 +8995,19 @@
       </c>
       <c r="AA9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AB9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AC9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="AD9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AE9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -9236,7 +9015,7 @@
       </c>
       <c r="AF9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AG9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -9244,19 +9023,19 @@
       </c>
       <c r="AH9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AI9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AJ9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="AK9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AL9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -9264,7 +9043,7 @@
       </c>
       <c r="AM9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AN9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -9272,19 +9051,19 @@
       </c>
       <c r="AO9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AP9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AQ9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="AR9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AS9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -9292,7 +9071,7 @@
       </c>
       <c r="AT9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AU9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -9300,19 +9079,19 @@
       </c>
       <c r="AV9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AW9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AX9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="AY9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AZ9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -9320,7 +9099,7 @@
       </c>
       <c r="BA9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BB9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -9328,19 +9107,19 @@
       </c>
       <c r="BC9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BD9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BE9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="BF9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BG9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -9348,7 +9127,7 @@
       </c>
       <c r="BH9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BI9" s="34" t="str">
         <f t="shared" si="3"/>
@@ -9356,18 +9135,18 @@
       </c>
       <c r="BJ9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BK9" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BL9" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-    </row>
-    <row r="10" spans="1:64" s="25" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" s="25" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -9437,10 +9216,10 @@
       <c r="BK10" s="38"/>
       <c r="BL10" s="38"/>
     </row>
-    <row r="11" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="41"/>
@@ -9508,29 +9287,29 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="46" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D12" s="48">
         <v>1</v>
       </c>
       <c r="E12" s="49">
         <f>Project_Start</f>
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="F12" s="49">
-        <f>E12+6</f>
-        <v>45642</v>
+        <f>E12+7</f>
+        <v>45644</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="5">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
@@ -9589,27 +9368,29 @@
       <c r="BK12" s="50"/>
       <c r="BL12" s="50"/>
     </row>
-    <row r="13" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="51" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="53"/>
+        <v>55</v>
+      </c>
+      <c r="D13" s="53">
+        <v>1</v>
+      </c>
       <c r="E13" s="54">
-        <f>F12</f>
-        <v>45642</v>
+        <f>Project_Start</f>
+        <v>45637</v>
       </c>
       <c r="F13" s="54">
-        <f>E13+2</f>
-        <v>45644</v>
+        <f>E13+14</f>
+        <v>45651</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
@@ -9668,29 +9449,29 @@
       <c r="BK13" s="50"/>
       <c r="BL13" s="50"/>
     </row>
-    <row r="14" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="51" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D14" s="53">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E14" s="54">
-        <f>F13</f>
-        <v>45644</v>
+        <f>E13+3</f>
+        <v>45640</v>
       </c>
       <c r="F14" s="54">
-        <f>E14+4</f>
-        <v>45648</v>
+        <f>E14+20</f>
+        <v>45660</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I14" s="50"/>
       <c r="J14" s="50"/>
@@ -9749,29 +9530,29 @@
       <c r="BK14" s="50"/>
       <c r="BL14" s="50"/>
     </row>
-    <row r="15" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="51" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D15" s="53">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E15" s="54">
-        <f>F14</f>
-        <v>45648</v>
+        <f>E12</f>
+        <v>45637</v>
       </c>
       <c r="F15" s="54">
-        <f>E15+5</f>
-        <v>45653</v>
+        <f>F12</f>
+        <v>45644</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
@@ -9830,7 +9611,7 @@
       <c r="BK15" s="50"/>
       <c r="BL15" s="50"/>
     </row>
-    <row r="16" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="51"/>
       <c r="C16" s="52"/>
@@ -9896,10 +9677,10 @@
       <c r="BK16" s="50"/>
       <c r="BL16" s="50"/>
     </row>
-    <row r="17" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="56" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="58"/>
@@ -9911,29 +9692,27 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>20</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C18" s="62"/>
       <c r="D18" s="63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="64">
-        <f>E16+1</f>
-        <v>1</v>
+        <f>E12</f>
+        <v>45637</v>
       </c>
       <c r="F18" s="64">
-        <f>E18+4</f>
-        <v>5</v>
+        <f>F12+2</f>
+        <v>45646</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I18" s="50"/>
       <c r="J18" s="50"/>
@@ -9992,29 +9771,27 @@
       <c r="BK18" s="50"/>
       <c r="BL18" s="50"/>
     </row>
-    <row r="19" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C19" s="62"/>
       <c r="D19" s="63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E19" s="64">
-        <f>E18+2</f>
-        <v>3</v>
+        <f>E12</f>
+        <v>45637</v>
       </c>
       <c r="F19" s="64">
-        <f>E19+5</f>
-        <v>8</v>
+        <f>F18+5</f>
+        <v>45651</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I19" s="50"/>
       <c r="J19" s="50"/>
@@ -10073,27 +9850,25 @@
       <c r="BK19" s="50"/>
       <c r="BL19" s="50"/>
     </row>
-    <row r="20" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="63"/>
+        <v>30</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63">
+        <v>0.8</v>
+      </c>
       <c r="E20" s="64">
-        <f>F19</f>
-        <v>8</v>
+        <v>45644</v>
       </c>
       <c r="F20" s="64">
-        <f>E20+3</f>
-        <v>11</v>
+        <v>45655</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I20" s="50"/>
       <c r="J20" s="50"/>
@@ -10152,27 +9927,25 @@
       <c r="BK20" s="50"/>
       <c r="BL20" s="50"/>
     </row>
-    <row r="21" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="63"/>
+        <v>31</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63">
+        <v>0.4</v>
+      </c>
       <c r="E21" s="64">
-        <f>E20</f>
-        <v>8</v>
+        <v>45649</v>
       </c>
       <c r="F21" s="64">
-        <f>E21+2</f>
-        <v>10</v>
+        <v>45662</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
@@ -10231,27 +10004,21 @@
       <c r="BK21" s="50"/>
       <c r="BL21" s="50"/>
     </row>
-    <row r="22" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
       <c r="B22" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64">
-        <f>E21</f>
-        <v>8</v>
-      </c>
-      <c r="F22" s="64">
-        <f>E22+3</f>
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63">
+        <v>0</v>
+      </c>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="5">
+      <c r="H22" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I22" s="50"/>
       <c r="J22" s="50"/>
@@ -10310,10 +10077,10 @@
       <c r="BK22" s="50"/>
       <c r="BL22" s="50"/>
     </row>
-    <row r="23" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="109" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C23" s="110"/>
       <c r="D23" s="111"/>
@@ -10325,29 +10092,27 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="115" t="s">
-        <v>20</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C24" s="115"/>
       <c r="D24" s="116">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E24" s="117">
-        <f>E15+1</f>
-        <v>45649</v>
+        <f>E12</f>
+        <v>45637</v>
       </c>
       <c r="F24" s="117">
-        <f>E24+4</f>
-        <v>45653</v>
+        <f>F12+4</f>
+        <v>45648</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I24" s="50"/>
       <c r="J24" s="50"/>
@@ -10406,29 +10171,27 @@
       <c r="BK24" s="50"/>
       <c r="BL24" s="50"/>
     </row>
-    <row r="25" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
       <c r="B25" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="115" t="s">
-        <v>21</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C25" s="115"/>
       <c r="D25" s="116">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="117">
-        <f>E24+2</f>
-        <v>45651</v>
+        <f>E24</f>
+        <v>45637</v>
       </c>
       <c r="F25" s="117">
-        <f>E25+5</f>
-        <v>45656</v>
+        <f>F24+2</f>
+        <v>45650</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I25" s="50"/>
       <c r="J25" s="50"/>
@@ -10487,27 +10250,25 @@
       <c r="BK25" s="50"/>
       <c r="BL25" s="50"/>
     </row>
-    <row r="26" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
       <c r="B26" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="115" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="116"/>
+        <v>46</v>
+      </c>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116">
+        <v>0.65</v>
+      </c>
       <c r="E26" s="117">
-        <f>F25</f>
-        <v>45656</v>
+        <v>45644</v>
       </c>
       <c r="F26" s="117">
-        <f>E26+3</f>
         <v>45659</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I26" s="50"/>
       <c r="J26" s="50"/>
@@ -10566,27 +10327,27 @@
       <c r="BK26" s="50"/>
       <c r="BL26" s="50"/>
     </row>
-    <row r="27" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13"/>
       <c r="B27" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="116"/>
+        <v>47</v>
+      </c>
+      <c r="C27" s="115"/>
+      <c r="D27" s="116">
+        <v>0.6</v>
+      </c>
       <c r="E27" s="117">
         <f>E26</f>
-        <v>45656</v>
+        <v>45644</v>
       </c>
       <c r="F27" s="117">
-        <f>E27+2</f>
-        <v>45658</v>
+        <f>F26</f>
+        <v>45659</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I27" s="50"/>
       <c r="J27" s="50"/>
@@ -10645,27 +10406,21 @@
       <c r="BK27" s="50"/>
       <c r="BL27" s="50"/>
     </row>
-    <row r="28" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
       <c r="B28" s="114" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="117">
-        <f>E27</f>
-        <v>45656</v>
-      </c>
-      <c r="F28" s="117">
-        <f>E28+3</f>
-        <v>45659</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C28" s="115"/>
+      <c r="D28" s="116">
+        <v>0</v>
+      </c>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="5">
+      <c r="H28" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
@@ -10724,10 +10479,10 @@
       <c r="BK28" s="50"/>
       <c r="BL28" s="50"/>
     </row>
-    <row r="29" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
       <c r="B29" s="65" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C29" s="66"/>
       <c r="D29" s="67"/>
@@ -10795,29 +10550,25 @@
       <c r="BK29" s="70"/>
       <c r="BL29" s="70"/>
     </row>
-    <row r="30" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="72" t="s">
-        <v>20</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C30" s="72"/>
       <c r="D30" s="73">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E30" s="74">
-        <f>E12+15</f>
-        <v>45651</v>
+        <v>45649</v>
       </c>
       <c r="F30" s="74">
-        <f>E30+5</f>
-        <v>45656</v>
+        <v>45669</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I30" s="50"/>
       <c r="J30" s="50"/>
@@ -10876,29 +10627,25 @@
       <c r="BK30" s="50"/>
       <c r="BL30" s="50"/>
     </row>
-    <row r="31" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="72" t="s">
-        <v>21</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C31" s="72"/>
       <c r="D31" s="73">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E31" s="74">
-        <f>F30+1</f>
-        <v>45657</v>
+        <v>45644</v>
       </c>
       <c r="F31" s="74">
-        <f>E31+4</f>
-        <v>45661</v>
+        <v>45669</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I31" s="50"/>
       <c r="J31" s="50"/>
@@ -10957,29 +10704,21 @@
       <c r="BK31" s="50"/>
       <c r="BL31" s="50"/>
     </row>
-    <row r="32" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
       <c r="B32" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="72" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C32" s="72"/>
       <c r="D32" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="74">
-        <f>E31+5</f>
-        <v>45662</v>
-      </c>
-      <c r="F32" s="74">
-        <f>E32+5</f>
-        <v>45667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="5">
+      <c r="H32" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I32" s="50"/>
       <c r="J32" s="50"/>
@@ -11038,29 +10777,21 @@
       <c r="BK32" s="50"/>
       <c r="BL32" s="50"/>
     </row>
-    <row r="33" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13"/>
       <c r="B33" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="72" t="s">
-        <v>23</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C33" s="72"/>
       <c r="D33" s="73">
-        <v>0.25</v>
-      </c>
-      <c r="E33" s="74">
-        <f>F32+1</f>
-        <v>45668</v>
-      </c>
-      <c r="F33" s="74">
-        <f>E33+4</f>
-        <v>45672</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="5">
+      <c r="H33" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I33" s="50"/>
       <c r="J33" s="50"/>
@@ -11119,29 +10850,25 @@
       <c r="BK33" s="50"/>
       <c r="BL33" s="50"/>
     </row>
-    <row r="34" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="72" t="s">
-        <v>24</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C34" s="72"/>
       <c r="D34" s="73">
         <v>0.25</v>
       </c>
       <c r="E34" s="74">
-        <f>E32</f>
-        <v>45662</v>
+        <v>45649</v>
       </c>
       <c r="F34" s="74">
-        <f>E34+4</f>
-        <v>45666</v>
+        <v>45669</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I34" s="50"/>
       <c r="J34" s="50"/>
@@ -11200,10 +10927,10 @@
       <c r="BK34" s="50"/>
       <c r="BL34" s="50"/>
     </row>
-    <row r="35" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="75" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="77"/>
@@ -11271,29 +10998,21 @@
       <c r="BK35" s="80"/>
       <c r="BL35" s="80"/>
     </row>
-    <row r="36" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
       <c r="B36" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="82" t="s">
-        <v>20</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C36" s="82"/>
       <c r="D36" s="83">
-        <v>0.25</v>
-      </c>
-      <c r="E36" s="84">
-        <f>E30+2</f>
-        <v>45653</v>
-      </c>
-      <c r="F36" s="84">
-        <f>E36+3</f>
-        <v>45656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="5">
+      <c r="H36" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I36" s="50"/>
       <c r="J36" s="50"/>
@@ -11352,29 +11071,21 @@
       <c r="BK36" s="50"/>
       <c r="BL36" s="50"/>
     </row>
-    <row r="37" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="82" t="s">
-        <v>21</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C37" s="82"/>
       <c r="D37" s="83">
-        <v>0.25</v>
-      </c>
-      <c r="E37" s="84">
-        <f>F36</f>
-        <v>45656</v>
-      </c>
-      <c r="F37" s="84">
-        <f>E37+4</f>
-        <v>45660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="5">
+      <c r="H37" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I37" s="50"/>
       <c r="J37" s="50"/>
@@ -11433,29 +11144,21 @@
       <c r="BK37" s="50"/>
       <c r="BL37" s="50"/>
     </row>
-    <row r="38" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="82" t="s">
-        <v>22</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C38" s="82"/>
       <c r="D38" s="83">
-        <v>0.5</v>
-      </c>
-      <c r="E38" s="84">
-        <f>F37+1</f>
-        <v>45661</v>
-      </c>
-      <c r="F38" s="84">
-        <f>E38+3</f>
-        <v>45664</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="5">
+      <c r="H38" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I38" s="50"/>
       <c r="J38" s="50"/>
@@ -11514,7 +11217,7 @@
       <c r="BK38" s="50"/>
       <c r="BL38" s="50"/>
     </row>
-    <row r="39" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="81"/>
       <c r="C39" s="82"/>
@@ -11580,7 +11283,7 @@
       <c r="BK39" s="50"/>
       <c r="BL39" s="50"/>
     </row>
-    <row r="40" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="81"/>
       <c r="C40" s="82"/>
@@ -11646,7 +11349,7 @@
       <c r="BK40" s="50"/>
       <c r="BL40" s="50"/>
     </row>
-    <row r="41" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
       <c r="B41" s="85"/>
       <c r="C41" s="86"/>
@@ -11715,7 +11418,7 @@
       <c r="BK41" s="44"/>
       <c r="BL41" s="44"/>
     </row>
-    <row r="42" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="89" t="s">
         <v>0</v>
@@ -11786,14 +11489,14 @@
       <c r="BK42" s="94"/>
       <c r="BL42" s="94"/>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="16"/>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="4"/>
     </row>
   </sheetData>
@@ -11826,7 +11529,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7033F0BE-18D2-40A4-A00A-408A8D893DDA}</x14:id>
+          <x14:id>{132B439C-F7C6-44D9-A695-30E687299A57}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11869,21 +11572,21 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A42" xr:uid="{36B8808D-8BD9-40CC-B534-B8E99EC9985E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A35" xr:uid="{61E083EF-F137-4A95-9E00-776C8607FF5C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A29" xr:uid="{D064AEA5-DB09-43BE-9ADC-20EF9D30790C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A17 A23" xr:uid="{3539B5DA-CE7D-4523-BF05-46384F3B6976}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A13" xr:uid="{710F7DB6-0530-4813-A35A-84380505736B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A12" xr:uid="{4A70E24B-949F-4EAE-A3A9-BFB28D6F9EA7}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A11" xr:uid="{0A8B4408-99D3-46DE-9E95-FAD755869D06}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A8:A9" xr:uid="{A3226B6A-A0A7-42EF-9EAB-2ADA5B1D0D14}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A7" xr:uid="{317F7733-884F-434F-BE63-8B89106C570C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A6" xr:uid="{CBB16A43-4932-4EAD-B3A0-2821F458F7D0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2:A5" xr:uid="{DAA1DAA8-3580-48E3-AC99-3E78B08D0342}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1" xr:uid="{081C534D-C96B-4EF1-9A77-F0CF4B08CB5C}"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2:Q5" xr:uid="{F355A5CD-1ACB-4FF3-92FC-E33FE982B75F}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2:Q5" xr:uid="{7B83BA20-93F6-48B8-A8DC-FA806EB388B5}">
       <formula1>1</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1" xr:uid="{C622C5F9-0BDA-4631-80EA-861AF2917D8F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2:A5" xr:uid="{0AF881C9-228E-4F9C-B62A-CF3C0EDA35E2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A6" xr:uid="{874FBFAA-1168-4A68-AD0E-DE72B923AB74}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A7" xr:uid="{0DAFD095-F0B1-4FD4-BA45-2BF5939340DC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A8:A9" xr:uid="{2120880F-A1E8-46BB-8D38-AADAE02AF11B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A11" xr:uid="{7CAA10E3-FF03-43E5-9F83-5B773B65A3E9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A12" xr:uid="{9641B94E-7792-49D4-835E-797D5075DC88}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A13" xr:uid="{8DF17CD5-257E-4F54-89FA-B8E35B1A0DB9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A17 A23" xr:uid="{1FD468D3-7180-476D-B47B-2310B6BCFB69}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A29" xr:uid="{CDE32A41-1F5F-4F01-8323-95C939875E09}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A35" xr:uid="{06B69953-853C-43D3-9FB5-31BC320CB67C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A42" xr:uid="{B79F90A5-E75C-42F4-B797-52A94B13F248}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -11895,7 +11598,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7033F0BE-18D2-40A4-A00A-408A8D893DDA}">
+          <x14:cfRule type="dataBar" id="{132B439C-F7C6-44D9-A695-30E687299A57}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11921,24 +11624,24 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87" style="7" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="98" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:2" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="99"/>
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:2" s="10" customFormat="1" ht="30.5" x14ac:dyDescent="0.85">
       <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
@@ -11953,42 +11656,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="7" customFormat="1" ht="205.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="7" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:2" s="10" customFormat="1" ht="30.5" x14ac:dyDescent="0.85">
       <c r="A8" s="100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="A9" s="101" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="7" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="7" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:2" s="10" customFormat="1" ht="30.5" x14ac:dyDescent="0.85">
       <c r="A11" s="100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="28" x14ac:dyDescent="0.25">
       <c r="A12" s="101" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="7" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="7" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="103" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:2" s="10" customFormat="1" ht="30.5" x14ac:dyDescent="0.85">
       <c r="A14" s="100" t="s">
         <v>10</v>
       </c>
@@ -11998,7 +11701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="70" x14ac:dyDescent="0.25">
       <c r="A16" s="101" t="s">
         <v>12</v>
       </c>
@@ -12060,15 +11763,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12380,6 +12074,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
@@ -12400,14 +12103,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09426A3-87E9-4865-8A6C-3456B026AE03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12428,6 +12123,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/Documents/Template QLDA.xlsx
+++ b/Documents/Template QLDA.xlsx
@@ -1,45 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\N04-PTTKPM-Nhom-7\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E741DB3A-944F-4706-914C-EA4C5A7364D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B0F468-D2A1-41A2-B3CA-84CB13400F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week 1" sheetId="11" r:id="rId1"/>
     <sheet name="week 2" sheetId="15" r:id="rId2"/>
     <sheet name="week 3" sheetId="16" r:id="rId3"/>
-    <sheet name="About" sheetId="12" r:id="rId4"/>
+    <sheet name="week 4" sheetId="17" r:id="rId4"/>
+    <sheet name="About" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Display_Week" localSheetId="1">'week 2'!$Q$2</definedName>
     <definedName name="Display_Week" localSheetId="2">'week 3'!$Q$2</definedName>
+    <definedName name="Display_Week" localSheetId="3">'week 4'!$Q$2</definedName>
     <definedName name="Display_Week">'week 1'!$Q$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'week 1'!$7:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'week 2'!$7:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'week 3'!$7:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'week 4'!$7:$9</definedName>
     <definedName name="Project_Start" localSheetId="1">'week 2'!$Q$1</definedName>
     <definedName name="Project_Start" localSheetId="2">'week 3'!$Q$1</definedName>
+    <definedName name="Project_Start" localSheetId="3">'week 4'!$Q$1</definedName>
     <definedName name="Project_Start">'week 1'!$Q$1</definedName>
     <definedName name="task_end" localSheetId="0">'week 1'!$F1</definedName>
     <definedName name="task_end" localSheetId="1">'week 2'!$F1</definedName>
     <definedName name="task_end" localSheetId="2">'week 3'!$F1</definedName>
+    <definedName name="task_end" localSheetId="3">'week 4'!$F1</definedName>
     <definedName name="task_progress" localSheetId="0">'week 1'!$D1</definedName>
     <definedName name="task_progress" localSheetId="1">'week 2'!$D1</definedName>
     <definedName name="task_progress" localSheetId="2">'week 3'!$D1</definedName>
+    <definedName name="task_progress" localSheetId="3">'week 4'!$D1</definedName>
     <definedName name="task_start" localSheetId="0">'week 1'!$E1</definedName>
     <definedName name="task_start" localSheetId="1">'week 2'!$E1</definedName>
     <definedName name="task_start" localSheetId="2">'week 3'!$E1</definedName>
+    <definedName name="task_start" localSheetId="3">'week 4'!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
     <definedName name="today" localSheetId="1">TODAY()</definedName>
     <definedName name="today" localSheetId="2">TODAY()</definedName>
+    <definedName name="today" localSheetId="3">TODAY()</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="56">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -1159,19 +1167,22 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1183,17 +1194,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1211,7 +1219,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="45">
     <dxf>
       <fill>
         <patternFill>
@@ -1459,9 +1467,124 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1681,15 +1804,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="36"/>
-      <tableStyleElement type="headerRow" dxfId="35"/>
-      <tableStyleElement type="totalRow" dxfId="34"/>
-      <tableStyleElement type="firstColumn" dxfId="33"/>
-      <tableStyleElement type="lastColumn" dxfId="32"/>
-      <tableStyleElement type="firstRowStripe" dxfId="31"/>
-      <tableStyleElement type="secondRowStripe" dxfId="30"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="29"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="28"/>
+      <tableStyleElement type="wholeTable" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="totalRow" dxfId="42"/>
+      <tableStyleElement type="firstColumn" dxfId="41"/>
+      <tableStyleElement type="lastColumn" dxfId="40"/>
+      <tableStyleElement type="firstRowStripe" dxfId="39"/>
+      <tableStyleElement type="secondRowStripe" dxfId="38"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="37"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="36"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2046,24 +2169,24 @@
   </sheetPr>
   <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="51.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" customWidth="1"/>
+    <col min="7" max="7" width="2.69921875" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.6640625" customWidth="1"/>
+    <col min="9" max="65" width="2.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.7">
+    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.45">
       <c r="A1" s="14"/>
       <c r="B1" s="97" t="s">
         <v>49</v>
@@ -2073,30 +2196,30 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="126">
+      <c r="Q1" s="127">
         <v>45637</v>
       </c>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125"/>
-    </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B2" s="95" t="s">
         <v>50</v>
       </c>
@@ -2104,30 +2227,30 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="124">
+      <c r="Q2" s="125">
         <v>1</v>
       </c>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-    </row>
-    <row r="3" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+    </row>
+    <row r="3" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
       <c r="B3" s="95" t="s">
         <v>44</v>
       </c>
@@ -2154,7 +2277,7 @@
       <c r="Y3" s="106"/>
       <c r="Z3" s="106"/>
     </row>
-    <row r="4" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
       <c r="B4" s="95" t="s">
         <v>51</v>
       </c>
@@ -2181,7 +2304,7 @@
       <c r="Y4" s="106"/>
       <c r="Z4" s="106"/>
     </row>
-    <row r="5" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
       <c r="B5" s="95" t="s">
         <v>52</v>
       </c>
@@ -2208,7 +2331,7 @@
       <c r="Y5" s="106"/>
       <c r="Z5" s="106"/>
     </row>
-    <row r="6" spans="1:64" s="25" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:64" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="13"/>
       <c r="B6" s="118" t="s">
         <v>53</v>
@@ -2217,106 +2340,106 @@
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:64" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="28"/>
       <c r="E7" s="29"/>
-      <c r="I7" s="121">
+      <c r="I7" s="132">
         <f>I8</f>
         <v>45635</v>
       </c>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119">
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130">
         <f>P8</f>
         <v>45642</v>
       </c>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="119"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119">
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130">
         <f>W8</f>
         <v>45649</v>
       </c>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119">
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="130">
         <f>AD8</f>
         <v>45656</v>
       </c>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="119"/>
-      <c r="AK7" s="119">
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="130"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="130"/>
+      <c r="AJ7" s="130"/>
+      <c r="AK7" s="130">
         <f>AK8</f>
         <v>45663</v>
       </c>
-      <c r="AL7" s="119"/>
-      <c r="AM7" s="119"/>
-      <c r="AN7" s="119"/>
-      <c r="AO7" s="119"/>
-      <c r="AP7" s="119"/>
-      <c r="AQ7" s="119"/>
-      <c r="AR7" s="119">
+      <c r="AL7" s="130"/>
+      <c r="AM7" s="130"/>
+      <c r="AN7" s="130"/>
+      <c r="AO7" s="130"/>
+      <c r="AP7" s="130"/>
+      <c r="AQ7" s="130"/>
+      <c r="AR7" s="130">
         <f>AR8</f>
         <v>45670</v>
       </c>
-      <c r="AS7" s="119"/>
-      <c r="AT7" s="119"/>
-      <c r="AU7" s="119"/>
-      <c r="AV7" s="119"/>
-      <c r="AW7" s="119"/>
-      <c r="AX7" s="119"/>
-      <c r="AY7" s="119">
+      <c r="AS7" s="130"/>
+      <c r="AT7" s="130"/>
+      <c r="AU7" s="130"/>
+      <c r="AV7" s="130"/>
+      <c r="AW7" s="130"/>
+      <c r="AX7" s="130"/>
+      <c r="AY7" s="130">
         <f>AY8</f>
         <v>45677</v>
       </c>
-      <c r="AZ7" s="119"/>
-      <c r="BA7" s="119"/>
-      <c r="BB7" s="119"/>
-      <c r="BC7" s="119"/>
-      <c r="BD7" s="119"/>
-      <c r="BE7" s="119"/>
-      <c r="BF7" s="119">
+      <c r="AZ7" s="130"/>
+      <c r="BA7" s="130"/>
+      <c r="BB7" s="130"/>
+      <c r="BC7" s="130"/>
+      <c r="BD7" s="130"/>
+      <c r="BE7" s="130"/>
+      <c r="BF7" s="130">
         <f>BF8</f>
         <v>45684</v>
       </c>
-      <c r="BG7" s="119"/>
-      <c r="BH7" s="119"/>
-      <c r="BI7" s="119"/>
-      <c r="BJ7" s="119"/>
-      <c r="BK7" s="119"/>
-      <c r="BL7" s="120"/>
-    </row>
-    <row r="8" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="129"/>
-      <c r="B8" s="130" t="s">
+      <c r="BG7" s="130"/>
+      <c r="BH7" s="130"/>
+      <c r="BI7" s="130"/>
+      <c r="BJ7" s="130"/>
+      <c r="BK7" s="130"/>
+      <c r="BL7" s="131"/>
+    </row>
+    <row r="8" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="119"/>
+      <c r="B8" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="122" t="s">
+      <c r="E8" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="122" t="s">
+      <c r="F8" s="124" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="30">
@@ -2544,9 +2667,9 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="9" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="129"/>
-      <c r="B9" s="131"/>
+    <row r="9" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="119"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="123"/>
       <c r="D9" s="123"/>
       <c r="E9" s="123"/>
@@ -2776,7 +2899,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="10" spans="1:64" s="25" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="25" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -2846,7 +2969,7 @@
       <c r="BK10" s="38"/>
       <c r="BL10" s="38"/>
     </row>
-    <row r="11" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="39" t="s">
         <v>23</v>
@@ -2917,7 +3040,7 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="46" t="s">
         <v>24</v>
@@ -2998,7 +3121,7 @@
       <c r="BK12" s="50"/>
       <c r="BL12" s="50"/>
     </row>
-    <row r="13" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="51" t="s">
         <v>25</v>
@@ -3079,7 +3202,7 @@
       <c r="BK13" s="50"/>
       <c r="BL13" s="50"/>
     </row>
-    <row r="14" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="51" t="s">
         <v>26</v>
@@ -3160,7 +3283,7 @@
       <c r="BK14" s="50"/>
       <c r="BL14" s="50"/>
     </row>
-    <row r="15" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="51" t="s">
         <v>27</v>
@@ -3241,7 +3364,7 @@
       <c r="BK15" s="50"/>
       <c r="BL15" s="50"/>
     </row>
-    <row r="16" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="51"/>
       <c r="C16" s="52"/>
@@ -3307,7 +3430,7 @@
       <c r="BK16" s="50"/>
       <c r="BL16" s="50"/>
     </row>
-    <row r="17" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="56" t="s">
         <v>42</v>
@@ -3322,7 +3445,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="61" t="s">
         <v>28</v>
@@ -3401,7 +3524,7 @@
       <c r="BK18" s="50"/>
       <c r="BL18" s="50"/>
     </row>
-    <row r="19" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="61" t="s">
         <v>29</v>
@@ -3480,7 +3603,7 @@
       <c r="BK19" s="50"/>
       <c r="BL19" s="50"/>
     </row>
-    <row r="20" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="61" t="s">
         <v>30</v>
@@ -3553,7 +3676,7 @@
       <c r="BK20" s="50"/>
       <c r="BL20" s="50"/>
     </row>
-    <row r="21" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="61" t="s">
         <v>31</v>
@@ -3626,7 +3749,7 @@
       <c r="BK21" s="50"/>
       <c r="BL21" s="50"/>
     </row>
-    <row r="22" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="61" t="s">
         <v>32</v>
@@ -3699,7 +3822,7 @@
       <c r="BK22" s="50"/>
       <c r="BL22" s="50"/>
     </row>
-    <row r="23" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="109" t="s">
         <v>48</v>
@@ -3714,7 +3837,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="114" t="s">
         <v>28</v>
@@ -3793,7 +3916,7 @@
       <c r="BK24" s="50"/>
       <c r="BL24" s="50"/>
     </row>
-    <row r="25" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="114" t="s">
         <v>45</v>
@@ -3872,7 +3995,7 @@
       <c r="BK25" s="50"/>
       <c r="BL25" s="50"/>
     </row>
-    <row r="26" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="114" t="s">
         <v>46</v>
@@ -3943,7 +4066,7 @@
       <c r="BK26" s="50"/>
       <c r="BL26" s="50"/>
     </row>
-    <row r="27" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="114" t="s">
         <v>47</v>
@@ -4014,7 +4137,7 @@
       <c r="BK27" s="50"/>
       <c r="BL27" s="50"/>
     </row>
-    <row r="28" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="114" t="s">
         <v>32</v>
@@ -4085,7 +4208,7 @@
       <c r="BK28" s="50"/>
       <c r="BL28" s="50"/>
     </row>
-    <row r="29" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="65" t="s">
         <v>43</v>
@@ -4156,7 +4279,7 @@
       <c r="BK29" s="70"/>
       <c r="BL29" s="70"/>
     </row>
-    <row r="30" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="71" t="s">
         <v>33</v>
@@ -4229,7 +4352,7 @@
       <c r="BK30" s="50"/>
       <c r="BL30" s="50"/>
     </row>
-    <row r="31" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="71" t="s">
         <v>34</v>
@@ -4302,7 +4425,7 @@
       <c r="BK31" s="50"/>
       <c r="BL31" s="50"/>
     </row>
-    <row r="32" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="71" t="s">
         <v>35</v>
@@ -4375,7 +4498,7 @@
       <c r="BK32" s="50"/>
       <c r="BL32" s="50"/>
     </row>
-    <row r="33" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="71" t="s">
         <v>36</v>
@@ -4448,7 +4571,7 @@
       <c r="BK33" s="50"/>
       <c r="BL33" s="50"/>
     </row>
-    <row r="34" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="71" t="s">
         <v>37</v>
@@ -4521,7 +4644,7 @@
       <c r="BK34" s="50"/>
       <c r="BL34" s="50"/>
     </row>
-    <row r="35" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="75" t="s">
         <v>38</v>
@@ -4592,7 +4715,7 @@
       <c r="BK35" s="80"/>
       <c r="BL35" s="80"/>
     </row>
-    <row r="36" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="81" t="s">
         <v>39</v>
@@ -4665,7 +4788,7 @@
       <c r="BK36" s="50"/>
       <c r="BL36" s="50"/>
     </row>
-    <row r="37" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="81" t="s">
         <v>40</v>
@@ -4738,7 +4861,7 @@
       <c r="BK37" s="50"/>
       <c r="BL37" s="50"/>
     </row>
-    <row r="38" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="81" t="s">
         <v>41</v>
@@ -4811,7 +4934,7 @@
       <c r="BK38" s="50"/>
       <c r="BL38" s="50"/>
     </row>
-    <row r="39" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="81"/>
       <c r="C39" s="82"/>
@@ -4877,7 +5000,7 @@
       <c r="BK39" s="50"/>
       <c r="BL39" s="50"/>
     </row>
-    <row r="40" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="81"/>
       <c r="C40" s="82"/>
@@ -4943,7 +5066,7 @@
       <c r="BK40" s="50"/>
       <c r="BL40" s="50"/>
     </row>
-    <row r="41" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="85"/>
       <c r="C41" s="86"/>
@@ -5012,7 +5135,7 @@
       <c r="BK41" s="44"/>
       <c r="BL41" s="44"/>
     </row>
-    <row r="42" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="89" t="s">
         <v>0</v>
@@ -5083,28 +5206,18 @@
       <c r="BK42" s="94"/>
       <c r="BL42" s="94"/>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="16"/>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="P7:V7"/>
@@ -5113,6 +5226,16 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="23">
@@ -5129,39 +5252,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL40">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL16">
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="34" priority="6">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL22 I24:BL28">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL34">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL40">
-    <cfRule type="expression" dxfId="20" priority="36">
+    <cfRule type="expression" dxfId="28" priority="36">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5219,24 +5342,24 @@
   </sheetPr>
   <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="51.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" customWidth="1"/>
+    <col min="7" max="7" width="2.69921875" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.6640625" customWidth="1"/>
+    <col min="9" max="65" width="2.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.7">
+    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.45">
       <c r="A1" s="14"/>
       <c r="B1" s="97" t="s">
         <v>49</v>
@@ -5246,30 +5369,30 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="126">
+      <c r="Q1" s="127">
         <v>45637</v>
       </c>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125"/>
-    </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B2" s="95" t="s">
         <v>50</v>
       </c>
@@ -5277,30 +5400,30 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="124">
+      <c r="Q2" s="125">
         <v>1</v>
       </c>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-    </row>
-    <row r="3" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+    </row>
+    <row r="3" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
       <c r="B3" s="95" t="s">
         <v>44</v>
       </c>
@@ -5327,7 +5450,7 @@
       <c r="Y3" s="106"/>
       <c r="Z3" s="106"/>
     </row>
-    <row r="4" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
       <c r="B4" s="95" t="s">
         <v>51</v>
       </c>
@@ -5354,7 +5477,7 @@
       <c r="Y4" s="106"/>
       <c r="Z4" s="106"/>
     </row>
-    <row r="5" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
       <c r="B5" s="95" t="s">
         <v>52</v>
       </c>
@@ -5381,7 +5504,7 @@
       <c r="Y5" s="106"/>
       <c r="Z5" s="106"/>
     </row>
-    <row r="6" spans="1:64" s="25" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:64" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="13"/>
       <c r="B6" s="118" t="s">
         <v>53</v>
@@ -5390,106 +5513,106 @@
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:64" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="28"/>
       <c r="E7" s="29"/>
-      <c r="I7" s="121">
+      <c r="I7" s="132">
         <f>I8</f>
         <v>45635</v>
       </c>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119">
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130">
         <f>P8</f>
         <v>45642</v>
       </c>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="119"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119">
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130">
         <f>W8</f>
         <v>45649</v>
       </c>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119">
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="130">
         <f>AD8</f>
         <v>45656</v>
       </c>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="119"/>
-      <c r="AK7" s="119">
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="130"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="130"/>
+      <c r="AJ7" s="130"/>
+      <c r="AK7" s="130">
         <f>AK8</f>
         <v>45663</v>
       </c>
-      <c r="AL7" s="119"/>
-      <c r="AM7" s="119"/>
-      <c r="AN7" s="119"/>
-      <c r="AO7" s="119"/>
-      <c r="AP7" s="119"/>
-      <c r="AQ7" s="119"/>
-      <c r="AR7" s="119">
+      <c r="AL7" s="130"/>
+      <c r="AM7" s="130"/>
+      <c r="AN7" s="130"/>
+      <c r="AO7" s="130"/>
+      <c r="AP7" s="130"/>
+      <c r="AQ7" s="130"/>
+      <c r="AR7" s="130">
         <f>AR8</f>
         <v>45670</v>
       </c>
-      <c r="AS7" s="119"/>
-      <c r="AT7" s="119"/>
-      <c r="AU7" s="119"/>
-      <c r="AV7" s="119"/>
-      <c r="AW7" s="119"/>
-      <c r="AX7" s="119"/>
-      <c r="AY7" s="119">
+      <c r="AS7" s="130"/>
+      <c r="AT7" s="130"/>
+      <c r="AU7" s="130"/>
+      <c r="AV7" s="130"/>
+      <c r="AW7" s="130"/>
+      <c r="AX7" s="130"/>
+      <c r="AY7" s="130">
         <f>AY8</f>
         <v>45677</v>
       </c>
-      <c r="AZ7" s="119"/>
-      <c r="BA7" s="119"/>
-      <c r="BB7" s="119"/>
-      <c r="BC7" s="119"/>
-      <c r="BD7" s="119"/>
-      <c r="BE7" s="119"/>
-      <c r="BF7" s="119">
+      <c r="AZ7" s="130"/>
+      <c r="BA7" s="130"/>
+      <c r="BB7" s="130"/>
+      <c r="BC7" s="130"/>
+      <c r="BD7" s="130"/>
+      <c r="BE7" s="130"/>
+      <c r="BF7" s="130">
         <f>BF8</f>
         <v>45684</v>
       </c>
-      <c r="BG7" s="119"/>
-      <c r="BH7" s="119"/>
-      <c r="BI7" s="119"/>
-      <c r="BJ7" s="119"/>
-      <c r="BK7" s="119"/>
-      <c r="BL7" s="120"/>
-    </row>
-    <row r="8" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="129"/>
-      <c r="B8" s="130" t="s">
+      <c r="BG7" s="130"/>
+      <c r="BH7" s="130"/>
+      <c r="BI7" s="130"/>
+      <c r="BJ7" s="130"/>
+      <c r="BK7" s="130"/>
+      <c r="BL7" s="131"/>
+    </row>
+    <row r="8" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="119"/>
+      <c r="B8" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="122" t="s">
+      <c r="E8" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="122" t="s">
+      <c r="F8" s="124" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="30">
@@ -5717,9 +5840,9 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="9" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="129"/>
-      <c r="B9" s="131"/>
+    <row r="9" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="119"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="123"/>
       <c r="D9" s="123"/>
       <c r="E9" s="123"/>
@@ -5949,7 +6072,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="10" spans="1:64" s="25" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="25" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -6019,7 +6142,7 @@
       <c r="BK10" s="38"/>
       <c r="BL10" s="38"/>
     </row>
-    <row r="11" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="39" t="s">
         <v>23</v>
@@ -6090,7 +6213,7 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="46" t="s">
         <v>24</v>
@@ -6171,7 +6294,7 @@
       <c r="BK12" s="50"/>
       <c r="BL12" s="50"/>
     </row>
-    <row r="13" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="51" t="s">
         <v>25</v>
@@ -6252,7 +6375,7 @@
       <c r="BK13" s="50"/>
       <c r="BL13" s="50"/>
     </row>
-    <row r="14" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="51" t="s">
         <v>26</v>
@@ -6333,7 +6456,7 @@
       <c r="BK14" s="50"/>
       <c r="BL14" s="50"/>
     </row>
-    <row r="15" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="51" t="s">
         <v>27</v>
@@ -6414,7 +6537,7 @@
       <c r="BK15" s="50"/>
       <c r="BL15" s="50"/>
     </row>
-    <row r="16" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="51"/>
       <c r="C16" s="52"/>
@@ -6480,7 +6603,7 @@
       <c r="BK16" s="50"/>
       <c r="BL16" s="50"/>
     </row>
-    <row r="17" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="56" t="s">
         <v>42</v>
@@ -6495,7 +6618,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="61" t="s">
         <v>28</v>
@@ -6574,7 +6697,7 @@
       <c r="BK18" s="50"/>
       <c r="BL18" s="50"/>
     </row>
-    <row r="19" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="61" t="s">
         <v>29</v>
@@ -6653,7 +6776,7 @@
       <c r="BK19" s="50"/>
       <c r="BL19" s="50"/>
     </row>
-    <row r="20" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="61" t="s">
         <v>30</v>
@@ -6730,7 +6853,7 @@
       <c r="BK20" s="50"/>
       <c r="BL20" s="50"/>
     </row>
-    <row r="21" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="61" t="s">
         <v>31</v>
@@ -6803,7 +6926,7 @@
       <c r="BK21" s="50"/>
       <c r="BL21" s="50"/>
     </row>
-    <row r="22" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="61" t="s">
         <v>32</v>
@@ -6876,7 +6999,7 @@
       <c r="BK22" s="50"/>
       <c r="BL22" s="50"/>
     </row>
-    <row r="23" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="109" t="s">
         <v>48</v>
@@ -6891,7 +7014,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="114" t="s">
         <v>28</v>
@@ -6970,7 +7093,7 @@
       <c r="BK24" s="50"/>
       <c r="BL24" s="50"/>
     </row>
-    <row r="25" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="114" t="s">
         <v>45</v>
@@ -7049,7 +7172,7 @@
       <c r="BK25" s="50"/>
       <c r="BL25" s="50"/>
     </row>
-    <row r="26" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="114" t="s">
         <v>46</v>
@@ -7126,7 +7249,7 @@
       <c r="BK26" s="50"/>
       <c r="BL26" s="50"/>
     </row>
-    <row r="27" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="114" t="s">
         <v>47</v>
@@ -7205,7 +7328,7 @@
       <c r="BK27" s="50"/>
       <c r="BL27" s="50"/>
     </row>
-    <row r="28" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="114" t="s">
         <v>32</v>
@@ -7278,7 +7401,7 @@
       <c r="BK28" s="50"/>
       <c r="BL28" s="50"/>
     </row>
-    <row r="29" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="65" t="s">
         <v>43</v>
@@ -7349,7 +7472,7 @@
       <c r="BK29" s="70"/>
       <c r="BL29" s="70"/>
     </row>
-    <row r="30" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="71" t="s">
         <v>33</v>
@@ -7422,7 +7545,7 @@
       <c r="BK30" s="50"/>
       <c r="BL30" s="50"/>
     </row>
-    <row r="31" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="71" t="s">
         <v>34</v>
@@ -7499,7 +7622,7 @@
       <c r="BK31" s="50"/>
       <c r="BL31" s="50"/>
     </row>
-    <row r="32" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="71" t="s">
         <v>35</v>
@@ -7572,7 +7695,7 @@
       <c r="BK32" s="50"/>
       <c r="BL32" s="50"/>
     </row>
-    <row r="33" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="71" t="s">
         <v>36</v>
@@ -7645,7 +7768,7 @@
       <c r="BK33" s="50"/>
       <c r="BL33" s="50"/>
     </row>
-    <row r="34" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="71" t="s">
         <v>37</v>
@@ -7718,7 +7841,7 @@
       <c r="BK34" s="50"/>
       <c r="BL34" s="50"/>
     </row>
-    <row r="35" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="75" t="s">
         <v>38</v>
@@ -7789,21 +7912,25 @@
       <c r="BK35" s="80"/>
       <c r="BL35" s="80"/>
     </row>
-    <row r="36" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="81" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="82"/>
       <c r="D36" s="83">
-        <v>0</v>
-      </c>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
+        <v>0.1</v>
+      </c>
+      <c r="E36" s="84">
+        <v>45644</v>
+      </c>
+      <c r="F36" s="84">
+        <v>45676</v>
+      </c>
       <c r="G36" s="17"/>
-      <c r="H36" s="5" t="str">
+      <c r="H36" s="5">
         <f t="shared" si="4"/>
-        <v/>
+        <v>33</v>
       </c>
       <c r="I36" s="50"/>
       <c r="J36" s="50"/>
@@ -7862,7 +7989,7 @@
       <c r="BK36" s="50"/>
       <c r="BL36" s="50"/>
     </row>
-    <row r="37" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="81" t="s">
         <v>40</v>
@@ -7935,7 +8062,7 @@
       <c r="BK37" s="50"/>
       <c r="BL37" s="50"/>
     </row>
-    <row r="38" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="81" t="s">
         <v>41</v>
@@ -8008,7 +8135,7 @@
       <c r="BK38" s="50"/>
       <c r="BL38" s="50"/>
     </row>
-    <row r="39" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="81"/>
       <c r="C39" s="82"/>
@@ -8074,7 +8201,7 @@
       <c r="BK39" s="50"/>
       <c r="BL39" s="50"/>
     </row>
-    <row r="40" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="81"/>
       <c r="C40" s="82"/>
@@ -8140,7 +8267,7 @@
       <c r="BK40" s="50"/>
       <c r="BL40" s="50"/>
     </row>
-    <row r="41" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="85"/>
       <c r="C41" s="86"/>
@@ -8209,7 +8336,7 @@
       <c r="BK41" s="44"/>
       <c r="BL41" s="44"/>
     </row>
-    <row r="42" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="89" t="s">
         <v>0</v>
@@ -8280,29 +8407,18 @@
       <c r="BK42" s="94"/>
       <c r="BL42" s="94"/>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="16"/>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="AD7:AJ7"/>
-    <mergeCell ref="AK7:AQ7"/>
-    <mergeCell ref="AR7:AX7"/>
-    <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="BF7:BL7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="I2:O2"/>
@@ -8310,6 +8426,17 @@
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="P7:V7"/>
     <mergeCell ref="W7:AC7"/>
+    <mergeCell ref="BF7:BL7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="AD7:AJ7"/>
+    <mergeCell ref="AK7:AQ7"/>
+    <mergeCell ref="AR7:AX7"/>
+    <mergeCell ref="AY7:BE7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -8326,39 +8453,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL40">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL16">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL22 I24:BL28">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL34">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL40">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="10" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8416,24 +8543,24 @@
   </sheetPr>
   <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="51.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" customWidth="1"/>
+    <col min="7" max="7" width="2.69921875" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.6640625" customWidth="1"/>
+    <col min="9" max="65" width="2.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.7">
+    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.45">
       <c r="A1" s="14"/>
       <c r="B1" s="97" t="s">
         <v>49</v>
@@ -8443,30 +8570,30 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="126">
+      <c r="Q1" s="127">
         <v>45637</v>
       </c>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125"/>
-    </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B2" s="95" t="s">
         <v>50</v>
       </c>
@@ -8474,30 +8601,30 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="124">
+      <c r="Q2" s="125">
         <v>1</v>
       </c>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-    </row>
-    <row r="3" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+    </row>
+    <row r="3" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
       <c r="B3" s="95" t="s">
         <v>44</v>
       </c>
@@ -8524,7 +8651,7 @@
       <c r="Y3" s="106"/>
       <c r="Z3" s="106"/>
     </row>
-    <row r="4" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
       <c r="B4" s="95" t="s">
         <v>51</v>
       </c>
@@ -8551,7 +8678,7 @@
       <c r="Y4" s="106"/>
       <c r="Z4" s="106"/>
     </row>
-    <row r="5" spans="1:64" ht="24.5" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
       <c r="B5" s="95" t="s">
         <v>52</v>
       </c>
@@ -8578,7 +8705,7 @@
       <c r="Y5" s="106"/>
       <c r="Z5" s="106"/>
     </row>
-    <row r="6" spans="1:64" s="25" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:64" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="13"/>
       <c r="B6" s="118" t="s">
         <v>53</v>
@@ -8587,106 +8714,106 @@
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:64" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="28"/>
       <c r="E7" s="29"/>
-      <c r="I7" s="121">
+      <c r="I7" s="132">
         <f>I8</f>
         <v>45635</v>
       </c>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119">
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130">
         <f>P8</f>
         <v>45642</v>
       </c>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="119"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119">
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130">
         <f>W8</f>
         <v>45649</v>
       </c>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119">
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="130">
         <f>AD8</f>
         <v>45656</v>
       </c>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="119"/>
-      <c r="AK7" s="119">
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="130"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="130"/>
+      <c r="AJ7" s="130"/>
+      <c r="AK7" s="130">
         <f>AK8</f>
         <v>45663</v>
       </c>
-      <c r="AL7" s="119"/>
-      <c r="AM7" s="119"/>
-      <c r="AN7" s="119"/>
-      <c r="AO7" s="119"/>
-      <c r="AP7" s="119"/>
-      <c r="AQ7" s="119"/>
-      <c r="AR7" s="119">
+      <c r="AL7" s="130"/>
+      <c r="AM7" s="130"/>
+      <c r="AN7" s="130"/>
+      <c r="AO7" s="130"/>
+      <c r="AP7" s="130"/>
+      <c r="AQ7" s="130"/>
+      <c r="AR7" s="130">
         <f>AR8</f>
         <v>45670</v>
       </c>
-      <c r="AS7" s="119"/>
-      <c r="AT7" s="119"/>
-      <c r="AU7" s="119"/>
-      <c r="AV7" s="119"/>
-      <c r="AW7" s="119"/>
-      <c r="AX7" s="119"/>
-      <c r="AY7" s="119">
+      <c r="AS7" s="130"/>
+      <c r="AT7" s="130"/>
+      <c r="AU7" s="130"/>
+      <c r="AV7" s="130"/>
+      <c r="AW7" s="130"/>
+      <c r="AX7" s="130"/>
+      <c r="AY7" s="130">
         <f>AY8</f>
         <v>45677</v>
       </c>
-      <c r="AZ7" s="119"/>
-      <c r="BA7" s="119"/>
-      <c r="BB7" s="119"/>
-      <c r="BC7" s="119"/>
-      <c r="BD7" s="119"/>
-      <c r="BE7" s="119"/>
-      <c r="BF7" s="119">
+      <c r="AZ7" s="130"/>
+      <c r="BA7" s="130"/>
+      <c r="BB7" s="130"/>
+      <c r="BC7" s="130"/>
+      <c r="BD7" s="130"/>
+      <c r="BE7" s="130"/>
+      <c r="BF7" s="130">
         <f>BF8</f>
         <v>45684</v>
       </c>
-      <c r="BG7" s="119"/>
-      <c r="BH7" s="119"/>
-      <c r="BI7" s="119"/>
-      <c r="BJ7" s="119"/>
-      <c r="BK7" s="119"/>
-      <c r="BL7" s="120"/>
-    </row>
-    <row r="8" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="129"/>
-      <c r="B8" s="130" t="s">
+      <c r="BG7" s="130"/>
+      <c r="BH7" s="130"/>
+      <c r="BI7" s="130"/>
+      <c r="BJ7" s="130"/>
+      <c r="BK7" s="130"/>
+      <c r="BL7" s="131"/>
+    </row>
+    <row r="8" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="119"/>
+      <c r="B8" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="122" t="s">
+      <c r="E8" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="122" t="s">
+      <c r="F8" s="124" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="30">
@@ -8914,9 +9041,9 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="9" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="129"/>
-      <c r="B9" s="131"/>
+    <row r="9" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="119"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="123"/>
       <c r="D9" s="123"/>
       <c r="E9" s="123"/>
@@ -9146,7 +9273,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="10" spans="1:64" s="25" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="25" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -9216,7 +9343,7 @@
       <c r="BK10" s="38"/>
       <c r="BL10" s="38"/>
     </row>
-    <row r="11" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="39" t="s">
         <v>23</v>
@@ -9287,7 +9414,7 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="46" t="s">
         <v>24</v>
@@ -9368,7 +9495,7 @@
       <c r="BK12" s="50"/>
       <c r="BL12" s="50"/>
     </row>
-    <row r="13" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="51" t="s">
         <v>25</v>
@@ -9449,7 +9576,7 @@
       <c r="BK13" s="50"/>
       <c r="BL13" s="50"/>
     </row>
-    <row r="14" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="51" t="s">
         <v>26</v>
@@ -9530,7 +9657,7 @@
       <c r="BK14" s="50"/>
       <c r="BL14" s="50"/>
     </row>
-    <row r="15" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="51" t="s">
         <v>27</v>
@@ -9611,7 +9738,7 @@
       <c r="BK15" s="50"/>
       <c r="BL15" s="50"/>
     </row>
-    <row r="16" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="51"/>
       <c r="C16" s="52"/>
@@ -9677,7 +9804,7 @@
       <c r="BK16" s="50"/>
       <c r="BL16" s="50"/>
     </row>
-    <row r="17" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="56" t="s">
         <v>42</v>
@@ -9692,7 +9819,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="61" t="s">
         <v>28</v>
@@ -9771,7 +9898,7 @@
       <c r="BK18" s="50"/>
       <c r="BL18" s="50"/>
     </row>
-    <row r="19" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="61" t="s">
         <v>29</v>
@@ -9850,7 +9977,7 @@
       <c r="BK19" s="50"/>
       <c r="BL19" s="50"/>
     </row>
-    <row r="20" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="61" t="s">
         <v>30</v>
@@ -9927,7 +10054,7 @@
       <c r="BK20" s="50"/>
       <c r="BL20" s="50"/>
     </row>
-    <row r="21" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="61" t="s">
         <v>31</v>
@@ -10004,7 +10131,7 @@
       <c r="BK21" s="50"/>
       <c r="BL21" s="50"/>
     </row>
-    <row r="22" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="61" t="s">
         <v>32</v>
@@ -10077,7 +10204,7 @@
       <c r="BK22" s="50"/>
       <c r="BL22" s="50"/>
     </row>
-    <row r="23" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="109" t="s">
         <v>48</v>
@@ -10092,7 +10219,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="114" t="s">
         <v>28</v>
@@ -10171,7 +10298,7 @@
       <c r="BK24" s="50"/>
       <c r="BL24" s="50"/>
     </row>
-    <row r="25" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="114" t="s">
         <v>45</v>
@@ -10250,7 +10377,7 @@
       <c r="BK25" s="50"/>
       <c r="BL25" s="50"/>
     </row>
-    <row r="26" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="114" t="s">
         <v>46</v>
@@ -10327,7 +10454,7 @@
       <c r="BK26" s="50"/>
       <c r="BL26" s="50"/>
     </row>
-    <row r="27" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="114" t="s">
         <v>47</v>
@@ -10406,7 +10533,7 @@
       <c r="BK27" s="50"/>
       <c r="BL27" s="50"/>
     </row>
-    <row r="28" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="114" t="s">
         <v>32</v>
@@ -10479,7 +10606,7 @@
       <c r="BK28" s="50"/>
       <c r="BL28" s="50"/>
     </row>
-    <row r="29" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="65" t="s">
         <v>43</v>
@@ -10550,7 +10677,7 @@
       <c r="BK29" s="70"/>
       <c r="BL29" s="70"/>
     </row>
-    <row r="30" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="71" t="s">
         <v>33</v>
@@ -10627,7 +10754,7 @@
       <c r="BK30" s="50"/>
       <c r="BL30" s="50"/>
     </row>
-    <row r="31" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="71" t="s">
         <v>34</v>
@@ -10704,7 +10831,7 @@
       <c r="BK31" s="50"/>
       <c r="BL31" s="50"/>
     </row>
-    <row r="32" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="71" t="s">
         <v>35</v>
@@ -10777,7 +10904,7 @@
       <c r="BK32" s="50"/>
       <c r="BL32" s="50"/>
     </row>
-    <row r="33" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="71" t="s">
         <v>36</v>
@@ -10850,7 +10977,7 @@
       <c r="BK33" s="50"/>
       <c r="BL33" s="50"/>
     </row>
-    <row r="34" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="71" t="s">
         <v>37</v>
@@ -10927,7 +11054,7 @@
       <c r="BK34" s="50"/>
       <c r="BL34" s="50"/>
     </row>
-    <row r="35" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="75" t="s">
         <v>38</v>
@@ -10998,21 +11125,25 @@
       <c r="BK35" s="80"/>
       <c r="BL35" s="80"/>
     </row>
-    <row r="36" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="81" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="82"/>
       <c r="D36" s="83">
-        <v>0</v>
-      </c>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
+        <v>0.35</v>
+      </c>
+      <c r="E36" s="84">
+        <v>45644</v>
+      </c>
+      <c r="F36" s="84">
+        <v>45676</v>
+      </c>
       <c r="G36" s="17"/>
-      <c r="H36" s="5" t="str">
+      <c r="H36" s="5">
         <f t="shared" si="4"/>
-        <v/>
+        <v>33</v>
       </c>
       <c r="I36" s="50"/>
       <c r="J36" s="50"/>
@@ -11071,21 +11202,25 @@
       <c r="BK36" s="50"/>
       <c r="BL36" s="50"/>
     </row>
-    <row r="37" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="81" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="82"/>
       <c r="D37" s="83">
-        <v>0</v>
-      </c>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
+        <v>0.25</v>
+      </c>
+      <c r="E37" s="84">
+        <v>45647</v>
+      </c>
+      <c r="F37" s="84">
+        <v>45676</v>
+      </c>
       <c r="G37" s="17"/>
-      <c r="H37" s="5" t="str">
+      <c r="H37" s="5">
         <f t="shared" si="4"/>
-        <v/>
+        <v>30</v>
       </c>
       <c r="I37" s="50"/>
       <c r="J37" s="50"/>
@@ -11144,7 +11279,7 @@
       <c r="BK37" s="50"/>
       <c r="BL37" s="50"/>
     </row>
-    <row r="38" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="81" t="s">
         <v>41</v>
@@ -11217,7 +11352,7 @@
       <c r="BK38" s="50"/>
       <c r="BL38" s="50"/>
     </row>
-    <row r="39" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="81"/>
       <c r="C39" s="82"/>
@@ -11283,7 +11418,7 @@
       <c r="BK39" s="50"/>
       <c r="BL39" s="50"/>
     </row>
-    <row r="40" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="81"/>
       <c r="C40" s="82"/>
@@ -11349,7 +11484,7 @@
       <c r="BK40" s="50"/>
       <c r="BL40" s="50"/>
     </row>
-    <row r="41" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="85"/>
       <c r="C41" s="86"/>
@@ -11418,7 +11553,7 @@
       <c r="BK41" s="44"/>
       <c r="BL41" s="44"/>
     </row>
-    <row r="42" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="89" t="s">
         <v>0</v>
@@ -11489,29 +11624,18 @@
       <c r="BK42" s="94"/>
       <c r="BL42" s="94"/>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="16"/>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="AD7:AJ7"/>
-    <mergeCell ref="AK7:AQ7"/>
-    <mergeCell ref="AR7:AX7"/>
-    <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="BF7:BL7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="I2:O2"/>
@@ -11519,6 +11643,17 @@
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="P7:V7"/>
     <mergeCell ref="W7:AC7"/>
+    <mergeCell ref="BF7:BL7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="AD7:AJ7"/>
+    <mergeCell ref="AK7:AQ7"/>
+    <mergeCell ref="AR7:AX7"/>
+    <mergeCell ref="AY7:BE7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -11535,39 +11670,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL40">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL16">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL22 I24:BL28">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL34">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL40">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11619,29 +11754,3263 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF64371B-9C4C-45E0-BC48-35B906AEB259}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BL45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.69921875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="51.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" customWidth="1"/>
+    <col min="7" max="7" width="2.69921875" customWidth="1"/>
+    <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
+    <col min="9" max="65" width="2.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.45">
+      <c r="A1" s="14"/>
+      <c r="B1" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="127">
+        <v>45637</v>
+      </c>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="22"/>
+      <c r="I2" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="125">
+        <v>1</v>
+      </c>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+    </row>
+    <row r="3" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="B3" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="22"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+    </row>
+    <row r="4" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="B4" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="96"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+    </row>
+    <row r="5" spans="1:64" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="B5" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="96"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="22"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+    </row>
+    <row r="6" spans="1:64" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="13"/>
+      <c r="B6" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="108"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:64" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="I7" s="132">
+        <f>I8</f>
+        <v>45635</v>
+      </c>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130">
+        <f>P8</f>
+        <v>45642</v>
+      </c>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130">
+        <f>W8</f>
+        <v>45649</v>
+      </c>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="130">
+        <f>AD8</f>
+        <v>45656</v>
+      </c>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="130"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="130"/>
+      <c r="AJ7" s="130"/>
+      <c r="AK7" s="130">
+        <f>AK8</f>
+        <v>45663</v>
+      </c>
+      <c r="AL7" s="130"/>
+      <c r="AM7" s="130"/>
+      <c r="AN7" s="130"/>
+      <c r="AO7" s="130"/>
+      <c r="AP7" s="130"/>
+      <c r="AQ7" s="130"/>
+      <c r="AR7" s="130">
+        <f>AR8</f>
+        <v>45670</v>
+      </c>
+      <c r="AS7" s="130"/>
+      <c r="AT7" s="130"/>
+      <c r="AU7" s="130"/>
+      <c r="AV7" s="130"/>
+      <c r="AW7" s="130"/>
+      <c r="AX7" s="130"/>
+      <c r="AY7" s="130">
+        <f>AY8</f>
+        <v>45677</v>
+      </c>
+      <c r="AZ7" s="130"/>
+      <c r="BA7" s="130"/>
+      <c r="BB7" s="130"/>
+      <c r="BC7" s="130"/>
+      <c r="BD7" s="130"/>
+      <c r="BE7" s="130"/>
+      <c r="BF7" s="130">
+        <f>BF8</f>
+        <v>45684</v>
+      </c>
+      <c r="BG7" s="130"/>
+      <c r="BH7" s="130"/>
+      <c r="BI7" s="130"/>
+      <c r="BJ7" s="130"/>
+      <c r="BK7" s="130"/>
+      <c r="BL7" s="131"/>
+    </row>
+    <row r="8" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="119"/>
+      <c r="B8" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="124" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="124" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="30">
+        <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <v>45635</v>
+      </c>
+      <c r="J8" s="30">
+        <f>I8+1</f>
+        <v>45636</v>
+      </c>
+      <c r="K8" s="30">
+        <f t="shared" ref="K8:AX8" si="0">J8+1</f>
+        <v>45637</v>
+      </c>
+      <c r="L8" s="30">
+        <f t="shared" si="0"/>
+        <v>45638</v>
+      </c>
+      <c r="M8" s="30">
+        <f t="shared" si="0"/>
+        <v>45639</v>
+      </c>
+      <c r="N8" s="30">
+        <f t="shared" si="0"/>
+        <v>45640</v>
+      </c>
+      <c r="O8" s="31">
+        <f t="shared" si="0"/>
+        <v>45641</v>
+      </c>
+      <c r="P8" s="32">
+        <f>O8+1</f>
+        <v>45642</v>
+      </c>
+      <c r="Q8" s="30">
+        <f>P8+1</f>
+        <v>45643</v>
+      </c>
+      <c r="R8" s="30">
+        <f t="shared" si="0"/>
+        <v>45644</v>
+      </c>
+      <c r="S8" s="30">
+        <f t="shared" si="0"/>
+        <v>45645</v>
+      </c>
+      <c r="T8" s="30">
+        <f t="shared" si="0"/>
+        <v>45646</v>
+      </c>
+      <c r="U8" s="30">
+        <f t="shared" si="0"/>
+        <v>45647</v>
+      </c>
+      <c r="V8" s="31">
+        <f t="shared" si="0"/>
+        <v>45648</v>
+      </c>
+      <c r="W8" s="32">
+        <f>V8+1</f>
+        <v>45649</v>
+      </c>
+      <c r="X8" s="30">
+        <f>W8+1</f>
+        <v>45650</v>
+      </c>
+      <c r="Y8" s="30">
+        <f t="shared" si="0"/>
+        <v>45651</v>
+      </c>
+      <c r="Z8" s="30">
+        <f t="shared" si="0"/>
+        <v>45652</v>
+      </c>
+      <c r="AA8" s="30">
+        <f t="shared" si="0"/>
+        <v>45653</v>
+      </c>
+      <c r="AB8" s="30">
+        <f t="shared" si="0"/>
+        <v>45654</v>
+      </c>
+      <c r="AC8" s="31">
+        <f t="shared" si="0"/>
+        <v>45655</v>
+      </c>
+      <c r="AD8" s="32">
+        <f>AC8+1</f>
+        <v>45656</v>
+      </c>
+      <c r="AE8" s="30">
+        <f>AD8+1</f>
+        <v>45657</v>
+      </c>
+      <c r="AF8" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
+      <c r="AG8" s="30">
+        <f t="shared" si="0"/>
+        <v>45659</v>
+      </c>
+      <c r="AH8" s="30">
+        <f t="shared" si="0"/>
+        <v>45660</v>
+      </c>
+      <c r="AI8" s="30">
+        <f t="shared" si="0"/>
+        <v>45661</v>
+      </c>
+      <c r="AJ8" s="31">
+        <f t="shared" si="0"/>
+        <v>45662</v>
+      </c>
+      <c r="AK8" s="32">
+        <f>AJ8+1</f>
+        <v>45663</v>
+      </c>
+      <c r="AL8" s="30">
+        <f>AK8+1</f>
+        <v>45664</v>
+      </c>
+      <c r="AM8" s="30">
+        <f t="shared" si="0"/>
+        <v>45665</v>
+      </c>
+      <c r="AN8" s="30">
+        <f t="shared" si="0"/>
+        <v>45666</v>
+      </c>
+      <c r="AO8" s="30">
+        <f t="shared" si="0"/>
+        <v>45667</v>
+      </c>
+      <c r="AP8" s="30">
+        <f t="shared" si="0"/>
+        <v>45668</v>
+      </c>
+      <c r="AQ8" s="31">
+        <f t="shared" si="0"/>
+        <v>45669</v>
+      </c>
+      <c r="AR8" s="32">
+        <f>AQ8+1</f>
+        <v>45670</v>
+      </c>
+      <c r="AS8" s="30">
+        <f>AR8+1</f>
+        <v>45671</v>
+      </c>
+      <c r="AT8" s="30">
+        <f t="shared" si="0"/>
+        <v>45672</v>
+      </c>
+      <c r="AU8" s="30">
+        <f t="shared" si="0"/>
+        <v>45673</v>
+      </c>
+      <c r="AV8" s="30">
+        <f t="shared" si="0"/>
+        <v>45674</v>
+      </c>
+      <c r="AW8" s="30">
+        <f t="shared" si="0"/>
+        <v>45675</v>
+      </c>
+      <c r="AX8" s="31">
+        <f t="shared" si="0"/>
+        <v>45676</v>
+      </c>
+      <c r="AY8" s="32">
+        <f>AX8+1</f>
+        <v>45677</v>
+      </c>
+      <c r="AZ8" s="30">
+        <f>AY8+1</f>
+        <v>45678</v>
+      </c>
+      <c r="BA8" s="30">
+        <f t="shared" ref="BA8:BE8" si="1">AZ8+1</f>
+        <v>45679</v>
+      </c>
+      <c r="BB8" s="30">
+        <f t="shared" si="1"/>
+        <v>45680</v>
+      </c>
+      <c r="BC8" s="30">
+        <f t="shared" si="1"/>
+        <v>45681</v>
+      </c>
+      <c r="BD8" s="30">
+        <f t="shared" si="1"/>
+        <v>45682</v>
+      </c>
+      <c r="BE8" s="31">
+        <f t="shared" si="1"/>
+        <v>45683</v>
+      </c>
+      <c r="BF8" s="32">
+        <f>BE8+1</f>
+        <v>45684</v>
+      </c>
+      <c r="BG8" s="30">
+        <f>BF8+1</f>
+        <v>45685</v>
+      </c>
+      <c r="BH8" s="30">
+        <f t="shared" ref="BH8:BL8" si="2">BG8+1</f>
+        <v>45686</v>
+      </c>
+      <c r="BI8" s="30">
+        <f t="shared" si="2"/>
+        <v>45687</v>
+      </c>
+      <c r="BJ8" s="30">
+        <f t="shared" si="2"/>
+        <v>45688</v>
+      </c>
+      <c r="BK8" s="30">
+        <f t="shared" si="2"/>
+        <v>45689</v>
+      </c>
+      <c r="BL8" s="30">
+        <f t="shared" si="2"/>
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="119"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="I9" s="33" t="str">
+        <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="J9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="K9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="L9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="M9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="N9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="O9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="P9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="Q9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="R9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="S9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="T9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="U9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="V9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="W9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="X9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="Y9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="Z9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AA9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AB9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AC9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="AD9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AE9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AF9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AG9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AH9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AI9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AJ9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="AK9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AL9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AM9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AN9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AO9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AP9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AQ9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="AR9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AS9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AT9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AU9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AV9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AW9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AX9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="AY9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AZ9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="BA9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="BB9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="BC9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="BD9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="BE9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="BF9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="BG9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="BH9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="BI9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="BJ9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="BK9" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="BL9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" s="25" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="H10" s="25" t="str">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="38"/>
+      <c r="AJ10" s="38"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="38"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="38"/>
+      <c r="AP10" s="38"/>
+      <c r="AQ10" s="38"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38"/>
+      <c r="AT10" s="38"/>
+      <c r="AU10" s="38"/>
+      <c r="AV10" s="38"/>
+      <c r="AW10" s="38"/>
+      <c r="AX10" s="38"/>
+      <c r="AY10" s="38"/>
+      <c r="AZ10" s="38"/>
+      <c r="BA10" s="38"/>
+      <c r="BB10" s="38"/>
+      <c r="BC10" s="38"/>
+      <c r="BD10" s="38"/>
+      <c r="BE10" s="38"/>
+      <c r="BF10" s="38"/>
+      <c r="BG10" s="38"/>
+      <c r="BH10" s="38"/>
+      <c r="BI10" s="38"/>
+      <c r="BJ10" s="38"/>
+      <c r="BK10" s="38"/>
+      <c r="BL10" s="38"/>
+    </row>
+    <row r="11" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="5" t="str">
+        <f t="shared" ref="H11:H42" si="4">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="44"/>
+      <c r="AP11" s="44"/>
+      <c r="AQ11" s="44"/>
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="44"/>
+      <c r="AT11" s="44"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="44"/>
+      <c r="AW11" s="44"/>
+      <c r="AX11" s="44"/>
+      <c r="AY11" s="44"/>
+      <c r="AZ11" s="44"/>
+      <c r="BA11" s="44"/>
+      <c r="BB11" s="44"/>
+      <c r="BC11" s="44"/>
+      <c r="BD11" s="44"/>
+      <c r="BE11" s="44"/>
+      <c r="BF11" s="44"/>
+      <c r="BG11" s="44"/>
+      <c r="BH11" s="44"/>
+      <c r="BI11" s="44"/>
+      <c r="BJ11" s="44"/>
+      <c r="BK11" s="44"/>
+      <c r="BL11" s="44"/>
+    </row>
+    <row r="12" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="48">
+        <v>1</v>
+      </c>
+      <c r="E12" s="49">
+        <f>Project_Start</f>
+        <v>45637</v>
+      </c>
+      <c r="F12" s="49">
+        <f>E12+7</f>
+        <v>45644</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="50"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
+      <c r="BB12" s="50"/>
+      <c r="BC12" s="50"/>
+      <c r="BD12" s="50"/>
+      <c r="BE12" s="50"/>
+      <c r="BF12" s="50"/>
+      <c r="BG12" s="50"/>
+      <c r="BH12" s="50"/>
+      <c r="BI12" s="50"/>
+      <c r="BJ12" s="50"/>
+      <c r="BK12" s="50"/>
+      <c r="BL12" s="50"/>
+    </row>
+    <row r="13" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="53">
+        <v>1</v>
+      </c>
+      <c r="E13" s="54">
+        <f>Project_Start</f>
+        <v>45637</v>
+      </c>
+      <c r="F13" s="54">
+        <f>E13+14</f>
+        <v>45651</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="5">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="50"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="50"/>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="50"/>
+      <c r="AU13" s="50"/>
+      <c r="AV13" s="50"/>
+      <c r="AW13" s="50"/>
+      <c r="AX13" s="50"/>
+      <c r="AY13" s="50"/>
+      <c r="AZ13" s="50"/>
+      <c r="BA13" s="50"/>
+      <c r="BB13" s="50"/>
+      <c r="BC13" s="50"/>
+      <c r="BD13" s="50"/>
+      <c r="BE13" s="50"/>
+      <c r="BF13" s="50"/>
+      <c r="BG13" s="50"/>
+      <c r="BH13" s="50"/>
+      <c r="BI13" s="50"/>
+      <c r="BJ13" s="50"/>
+      <c r="BK13" s="50"/>
+      <c r="BL13" s="50"/>
+    </row>
+    <row r="14" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="53">
+        <v>1</v>
+      </c>
+      <c r="E14" s="54">
+        <f>E13+3</f>
+        <v>45640</v>
+      </c>
+      <c r="F14" s="54">
+        <f>E14+20</f>
+        <v>45660</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="5">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="50"/>
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
+      <c r="AQ14" s="50"/>
+      <c r="AR14" s="50"/>
+      <c r="AS14" s="50"/>
+      <c r="AT14" s="50"/>
+      <c r="AU14" s="50"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
+      <c r="BB14" s="50"/>
+      <c r="BC14" s="50"/>
+      <c r="BD14" s="50"/>
+      <c r="BE14" s="50"/>
+      <c r="BF14" s="50"/>
+      <c r="BG14" s="50"/>
+      <c r="BH14" s="50"/>
+      <c r="BI14" s="50"/>
+      <c r="BJ14" s="50"/>
+      <c r="BK14" s="50"/>
+      <c r="BL14" s="50"/>
+    </row>
+    <row r="15" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="53">
+        <v>1</v>
+      </c>
+      <c r="E15" s="54">
+        <f>E12</f>
+        <v>45637</v>
+      </c>
+      <c r="F15" s="54">
+        <f>F12</f>
+        <v>45644</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="50"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="50"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="50"/>
+      <c r="AV15" s="50"/>
+      <c r="AW15" s="50"/>
+      <c r="AX15" s="50"/>
+      <c r="AY15" s="50"/>
+      <c r="AZ15" s="50"/>
+      <c r="BA15" s="50"/>
+      <c r="BB15" s="50"/>
+      <c r="BC15" s="50"/>
+      <c r="BD15" s="50"/>
+      <c r="BE15" s="50"/>
+      <c r="BF15" s="50"/>
+      <c r="BG15" s="50"/>
+      <c r="BH15" s="50"/>
+      <c r="BI15" s="50"/>
+      <c r="BJ15" s="50"/>
+      <c r="BK15" s="50"/>
+      <c r="BL15" s="50"/>
+    </row>
+    <row r="16" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="50"/>
+      <c r="AK16" s="50"/>
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50"/>
+      <c r="AR16" s="50"/>
+      <c r="AS16" s="50"/>
+      <c r="AT16" s="50"/>
+      <c r="AU16" s="50"/>
+      <c r="AV16" s="50"/>
+      <c r="AW16" s="50"/>
+      <c r="AX16" s="50"/>
+      <c r="AY16" s="50"/>
+      <c r="AZ16" s="50"/>
+      <c r="BA16" s="50"/>
+      <c r="BB16" s="50"/>
+      <c r="BC16" s="50"/>
+      <c r="BD16" s="50"/>
+      <c r="BE16" s="50"/>
+      <c r="BF16" s="50"/>
+      <c r="BG16" s="50"/>
+      <c r="BH16" s="50"/>
+      <c r="BI16" s="50"/>
+      <c r="BJ16" s="50"/>
+      <c r="BK16" s="50"/>
+      <c r="BL16" s="50"/>
+    </row>
+    <row r="17" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63">
+        <v>1</v>
+      </c>
+      <c r="E18" s="64">
+        <f>E12</f>
+        <v>45637</v>
+      </c>
+      <c r="F18" s="64">
+        <f>F12+2</f>
+        <v>45646</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="50"/>
+      <c r="BK18" s="50"/>
+      <c r="BL18" s="50"/>
+    </row>
+    <row r="19" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63">
+        <v>1</v>
+      </c>
+      <c r="E19" s="64">
+        <f>E12</f>
+        <v>45637</v>
+      </c>
+      <c r="F19" s="64">
+        <f>F18+5</f>
+        <v>45651</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="5">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="50"/>
+      <c r="AJ19" s="50"/>
+      <c r="AK19" s="50"/>
+      <c r="AL19" s="50"/>
+      <c r="AM19" s="50"/>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="50"/>
+      <c r="AV19" s="50"/>
+      <c r="AW19" s="50"/>
+      <c r="AX19" s="50"/>
+      <c r="AY19" s="50"/>
+      <c r="AZ19" s="50"/>
+      <c r="BA19" s="50"/>
+      <c r="BB19" s="50"/>
+      <c r="BC19" s="50"/>
+      <c r="BD19" s="50"/>
+      <c r="BE19" s="50"/>
+      <c r="BF19" s="50"/>
+      <c r="BG19" s="50"/>
+      <c r="BH19" s="50"/>
+      <c r="BI19" s="50"/>
+      <c r="BJ19" s="50"/>
+      <c r="BK19" s="50"/>
+      <c r="BL19" s="50"/>
+    </row>
+    <row r="20" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63">
+        <v>0.8</v>
+      </c>
+      <c r="E20" s="64">
+        <v>45644</v>
+      </c>
+      <c r="F20" s="64">
+        <v>45655</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="5">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
+      <c r="AH20" s="50"/>
+      <c r="AI20" s="50"/>
+      <c r="AJ20" s="50"/>
+      <c r="AK20" s="50"/>
+      <c r="AL20" s="50"/>
+      <c r="AM20" s="50"/>
+      <c r="AN20" s="50"/>
+      <c r="AO20" s="50"/>
+      <c r="AP20" s="50"/>
+      <c r="AQ20" s="50"/>
+      <c r="AR20" s="50"/>
+      <c r="AS20" s="50"/>
+      <c r="AT20" s="50"/>
+      <c r="AU20" s="50"/>
+      <c r="AV20" s="50"/>
+      <c r="AW20" s="50"/>
+      <c r="AX20" s="50"/>
+      <c r="AY20" s="50"/>
+      <c r="AZ20" s="50"/>
+      <c r="BA20" s="50"/>
+      <c r="BB20" s="50"/>
+      <c r="BC20" s="50"/>
+      <c r="BD20" s="50"/>
+      <c r="BE20" s="50"/>
+      <c r="BF20" s="50"/>
+      <c r="BG20" s="50"/>
+      <c r="BH20" s="50"/>
+      <c r="BI20" s="50"/>
+      <c r="BJ20" s="50"/>
+      <c r="BK20" s="50"/>
+      <c r="BL20" s="50"/>
+    </row>
+    <row r="21" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="64">
+        <v>45649</v>
+      </c>
+      <c r="F21" s="64">
+        <v>45662</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="5">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="50"/>
+      <c r="AI21" s="50"/>
+      <c r="AJ21" s="50"/>
+      <c r="AK21" s="50"/>
+      <c r="AL21" s="50"/>
+      <c r="AM21" s="50"/>
+      <c r="AN21" s="50"/>
+      <c r="AO21" s="50"/>
+      <c r="AP21" s="50"/>
+      <c r="AQ21" s="50"/>
+      <c r="AR21" s="50"/>
+      <c r="AS21" s="50"/>
+      <c r="AT21" s="50"/>
+      <c r="AU21" s="50"/>
+      <c r="AV21" s="50"/>
+      <c r="AW21" s="50"/>
+      <c r="AX21" s="50"/>
+      <c r="AY21" s="50"/>
+      <c r="AZ21" s="50"/>
+      <c r="BA21" s="50"/>
+      <c r="BB21" s="50"/>
+      <c r="BC21" s="50"/>
+      <c r="BD21" s="50"/>
+      <c r="BE21" s="50"/>
+      <c r="BF21" s="50"/>
+      <c r="BG21" s="50"/>
+      <c r="BH21" s="50"/>
+      <c r="BI21" s="50"/>
+      <c r="BJ21" s="50"/>
+      <c r="BK21" s="50"/>
+      <c r="BL21" s="50"/>
+    </row>
+    <row r="22" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="64">
+        <v>45656</v>
+      </c>
+      <c r="F22" s="64">
+        <v>45669</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="5">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="50"/>
+      <c r="AK22" s="50"/>
+      <c r="AL22" s="50"/>
+      <c r="AM22" s="50"/>
+      <c r="AN22" s="50"/>
+      <c r="AO22" s="50"/>
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="50"/>
+      <c r="AU22" s="50"/>
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="50"/>
+      <c r="AX22" s="50"/>
+      <c r="AY22" s="50"/>
+      <c r="AZ22" s="50"/>
+      <c r="BA22" s="50"/>
+      <c r="BB22" s="50"/>
+      <c r="BC22" s="50"/>
+      <c r="BD22" s="50"/>
+      <c r="BE22" s="50"/>
+      <c r="BF22" s="50"/>
+      <c r="BG22" s="50"/>
+      <c r="BH22" s="50"/>
+      <c r="BI22" s="50"/>
+      <c r="BJ22" s="50"/>
+      <c r="BK22" s="50"/>
+      <c r="BL22" s="50"/>
+    </row>
+    <row r="23" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="110"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116">
+        <v>1</v>
+      </c>
+      <c r="E24" s="117">
+        <f>E12</f>
+        <v>45637</v>
+      </c>
+      <c r="F24" s="117">
+        <f>F12+4</f>
+        <v>45648</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="5">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="50"/>
+      <c r="AJ24" s="50"/>
+      <c r="AK24" s="50"/>
+      <c r="AL24" s="50"/>
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="50"/>
+      <c r="AQ24" s="50"/>
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="50"/>
+      <c r="AT24" s="50"/>
+      <c r="AU24" s="50"/>
+      <c r="AV24" s="50"/>
+      <c r="AW24" s="50"/>
+      <c r="AX24" s="50"/>
+      <c r="AY24" s="50"/>
+      <c r="AZ24" s="50"/>
+      <c r="BA24" s="50"/>
+      <c r="BB24" s="50"/>
+      <c r="BC24" s="50"/>
+      <c r="BD24" s="50"/>
+      <c r="BE24" s="50"/>
+      <c r="BF24" s="50"/>
+      <c r="BG24" s="50"/>
+      <c r="BH24" s="50"/>
+      <c r="BI24" s="50"/>
+      <c r="BJ24" s="50"/>
+      <c r="BK24" s="50"/>
+      <c r="BL24" s="50"/>
+    </row>
+    <row r="25" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="115"/>
+      <c r="D25" s="116">
+        <v>1</v>
+      </c>
+      <c r="E25" s="117">
+        <f>E24</f>
+        <v>45637</v>
+      </c>
+      <c r="F25" s="117">
+        <f>F24+2</f>
+        <v>45650</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="5">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50"/>
+      <c r="AJ25" s="50"/>
+      <c r="AK25" s="50"/>
+      <c r="AL25" s="50"/>
+      <c r="AM25" s="50"/>
+      <c r="AN25" s="50"/>
+      <c r="AO25" s="50"/>
+      <c r="AP25" s="50"/>
+      <c r="AQ25" s="50"/>
+      <c r="AR25" s="50"/>
+      <c r="AS25" s="50"/>
+      <c r="AT25" s="50"/>
+      <c r="AU25" s="50"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="50"/>
+      <c r="BB25" s="50"/>
+      <c r="BC25" s="50"/>
+      <c r="BD25" s="50"/>
+      <c r="BE25" s="50"/>
+      <c r="BF25" s="50"/>
+      <c r="BG25" s="50"/>
+      <c r="BH25" s="50"/>
+      <c r="BI25" s="50"/>
+      <c r="BJ25" s="50"/>
+      <c r="BK25" s="50"/>
+      <c r="BL25" s="50"/>
+    </row>
+    <row r="26" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116">
+        <v>1</v>
+      </c>
+      <c r="E26" s="117">
+        <v>45644</v>
+      </c>
+      <c r="F26" s="117">
+        <v>45659</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="5">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="50"/>
+      <c r="AN26" s="50"/>
+      <c r="AO26" s="50"/>
+      <c r="AP26" s="50"/>
+      <c r="AQ26" s="50"/>
+      <c r="AR26" s="50"/>
+      <c r="AS26" s="50"/>
+      <c r="AT26" s="50"/>
+      <c r="AU26" s="50"/>
+      <c r="AV26" s="50"/>
+      <c r="AW26" s="50"/>
+      <c r="AX26" s="50"/>
+      <c r="AY26" s="50"/>
+      <c r="AZ26" s="50"/>
+      <c r="BA26" s="50"/>
+      <c r="BB26" s="50"/>
+      <c r="BC26" s="50"/>
+      <c r="BD26" s="50"/>
+      <c r="BE26" s="50"/>
+      <c r="BF26" s="50"/>
+      <c r="BG26" s="50"/>
+      <c r="BH26" s="50"/>
+      <c r="BI26" s="50"/>
+      <c r="BJ26" s="50"/>
+      <c r="BK26" s="50"/>
+      <c r="BL26" s="50"/>
+    </row>
+    <row r="27" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="115"/>
+      <c r="D27" s="116">
+        <v>1</v>
+      </c>
+      <c r="E27" s="117">
+        <f>E26</f>
+        <v>45644</v>
+      </c>
+      <c r="F27" s="117">
+        <f>F26</f>
+        <v>45659</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="5">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50"/>
+      <c r="AH27" s="50"/>
+      <c r="AI27" s="50"/>
+      <c r="AJ27" s="50"/>
+      <c r="AK27" s="50"/>
+      <c r="AL27" s="50"/>
+      <c r="AM27" s="50"/>
+      <c r="AN27" s="50"/>
+      <c r="AO27" s="50"/>
+      <c r="AP27" s="50"/>
+      <c r="AQ27" s="50"/>
+      <c r="AR27" s="50"/>
+      <c r="AS27" s="50"/>
+      <c r="AT27" s="50"/>
+      <c r="AU27" s="50"/>
+      <c r="AV27" s="50"/>
+      <c r="AW27" s="50"/>
+      <c r="AX27" s="50"/>
+      <c r="AY27" s="50"/>
+      <c r="AZ27" s="50"/>
+      <c r="BA27" s="50"/>
+      <c r="BB27" s="50"/>
+      <c r="BC27" s="50"/>
+      <c r="BD27" s="50"/>
+      <c r="BE27" s="50"/>
+      <c r="BF27" s="50"/>
+      <c r="BG27" s="50"/>
+      <c r="BH27" s="50"/>
+      <c r="BI27" s="50"/>
+      <c r="BJ27" s="50"/>
+      <c r="BK27" s="50"/>
+      <c r="BL27" s="50"/>
+    </row>
+    <row r="28" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="115"/>
+      <c r="D28" s="116">
+        <v>0.35</v>
+      </c>
+      <c r="E28" s="117">
+        <v>45656</v>
+      </c>
+      <c r="F28" s="117">
+        <v>45669</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="5">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
+      <c r="AM28" s="50"/>
+      <c r="AN28" s="50"/>
+      <c r="AO28" s="50"/>
+      <c r="AP28" s="50"/>
+      <c r="AQ28" s="50"/>
+      <c r="AR28" s="50"/>
+      <c r="AS28" s="50"/>
+      <c r="AT28" s="50"/>
+      <c r="AU28" s="50"/>
+      <c r="AV28" s="50"/>
+      <c r="AW28" s="50"/>
+      <c r="AX28" s="50"/>
+      <c r="AY28" s="50"/>
+      <c r="AZ28" s="50"/>
+      <c r="BA28" s="50"/>
+      <c r="BB28" s="50"/>
+      <c r="BC28" s="50"/>
+      <c r="BD28" s="50"/>
+      <c r="BE28" s="50"/>
+      <c r="BF28" s="50"/>
+      <c r="BG28" s="50"/>
+      <c r="BH28" s="50"/>
+      <c r="BI28" s="50"/>
+      <c r="BJ28" s="50"/>
+      <c r="BK28" s="50"/>
+      <c r="BL28" s="50"/>
+    </row>
+    <row r="29" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="70"/>
+      <c r="AD29" s="70"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="70"/>
+      <c r="AG29" s="70"/>
+      <c r="AH29" s="70"/>
+      <c r="AI29" s="70"/>
+      <c r="AJ29" s="70"/>
+      <c r="AK29" s="70"/>
+      <c r="AL29" s="70"/>
+      <c r="AM29" s="70"/>
+      <c r="AN29" s="70"/>
+      <c r="AO29" s="70"/>
+      <c r="AP29" s="70"/>
+      <c r="AQ29" s="70"/>
+      <c r="AR29" s="70"/>
+      <c r="AS29" s="70"/>
+      <c r="AT29" s="70"/>
+      <c r="AU29" s="70"/>
+      <c r="AV29" s="70"/>
+      <c r="AW29" s="70"/>
+      <c r="AX29" s="70"/>
+      <c r="AY29" s="70"/>
+      <c r="AZ29" s="70"/>
+      <c r="BA29" s="70"/>
+      <c r="BB29" s="70"/>
+      <c r="BC29" s="70"/>
+      <c r="BD29" s="70"/>
+      <c r="BE29" s="70"/>
+      <c r="BF29" s="70"/>
+      <c r="BG29" s="70"/>
+      <c r="BH29" s="70"/>
+      <c r="BI29" s="70"/>
+      <c r="BJ29" s="70"/>
+      <c r="BK29" s="70"/>
+      <c r="BL29" s="70"/>
+    </row>
+    <row r="30" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="72"/>
+      <c r="D30" s="73">
+        <v>0.6</v>
+      </c>
+      <c r="E30" s="74">
+        <v>45649</v>
+      </c>
+      <c r="F30" s="74">
+        <v>45669</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="5">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
+      <c r="AH30" s="50"/>
+      <c r="AI30" s="50"/>
+      <c r="AJ30" s="50"/>
+      <c r="AK30" s="50"/>
+      <c r="AL30" s="50"/>
+      <c r="AM30" s="50"/>
+      <c r="AN30" s="50"/>
+      <c r="AO30" s="50"/>
+      <c r="AP30" s="50"/>
+      <c r="AQ30" s="50"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
+      <c r="AT30" s="50"/>
+      <c r="AU30" s="50"/>
+      <c r="AV30" s="50"/>
+      <c r="AW30" s="50"/>
+      <c r="AX30" s="50"/>
+      <c r="AY30" s="50"/>
+      <c r="AZ30" s="50"/>
+      <c r="BA30" s="50"/>
+      <c r="BB30" s="50"/>
+      <c r="BC30" s="50"/>
+      <c r="BD30" s="50"/>
+      <c r="BE30" s="50"/>
+      <c r="BF30" s="50"/>
+      <c r="BG30" s="50"/>
+      <c r="BH30" s="50"/>
+      <c r="BI30" s="50"/>
+      <c r="BJ30" s="50"/>
+      <c r="BK30" s="50"/>
+      <c r="BL30" s="50"/>
+    </row>
+    <row r="31" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="72"/>
+      <c r="D31" s="73">
+        <v>0.7</v>
+      </c>
+      <c r="E31" s="74">
+        <v>45644</v>
+      </c>
+      <c r="F31" s="74">
+        <v>45669</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="5">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="50"/>
+      <c r="AH31" s="50"/>
+      <c r="AI31" s="50"/>
+      <c r="AJ31" s="50"/>
+      <c r="AK31" s="50"/>
+      <c r="AL31" s="50"/>
+      <c r="AM31" s="50"/>
+      <c r="AN31" s="50"/>
+      <c r="AO31" s="50"/>
+      <c r="AP31" s="50"/>
+      <c r="AQ31" s="50"/>
+      <c r="AR31" s="50"/>
+      <c r="AS31" s="50"/>
+      <c r="AT31" s="50"/>
+      <c r="AU31" s="50"/>
+      <c r="AV31" s="50"/>
+      <c r="AW31" s="50"/>
+      <c r="AX31" s="50"/>
+      <c r="AY31" s="50"/>
+      <c r="AZ31" s="50"/>
+      <c r="BA31" s="50"/>
+      <c r="BB31" s="50"/>
+      <c r="BC31" s="50"/>
+      <c r="BD31" s="50"/>
+      <c r="BE31" s="50"/>
+      <c r="BF31" s="50"/>
+      <c r="BG31" s="50"/>
+      <c r="BH31" s="50"/>
+      <c r="BI31" s="50"/>
+      <c r="BJ31" s="50"/>
+      <c r="BK31" s="50"/>
+      <c r="BL31" s="50"/>
+    </row>
+    <row r="32" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="E32" s="74">
+        <v>45660</v>
+      </c>
+      <c r="F32" s="74">
+        <v>45672</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="5">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
+      <c r="AH32" s="50"/>
+      <c r="AI32" s="50"/>
+      <c r="AJ32" s="50"/>
+      <c r="AK32" s="50"/>
+      <c r="AL32" s="50"/>
+      <c r="AM32" s="50"/>
+      <c r="AN32" s="50"/>
+      <c r="AO32" s="50"/>
+      <c r="AP32" s="50"/>
+      <c r="AQ32" s="50"/>
+      <c r="AR32" s="50"/>
+      <c r="AS32" s="50"/>
+      <c r="AT32" s="50"/>
+      <c r="AU32" s="50"/>
+      <c r="AV32" s="50"/>
+      <c r="AW32" s="50"/>
+      <c r="AX32" s="50"/>
+      <c r="AY32" s="50"/>
+      <c r="AZ32" s="50"/>
+      <c r="BA32" s="50"/>
+      <c r="BB32" s="50"/>
+      <c r="BC32" s="50"/>
+      <c r="BD32" s="50"/>
+      <c r="BE32" s="50"/>
+      <c r="BF32" s="50"/>
+      <c r="BG32" s="50"/>
+      <c r="BH32" s="50"/>
+      <c r="BI32" s="50"/>
+      <c r="BJ32" s="50"/>
+      <c r="BK32" s="50"/>
+      <c r="BL32" s="50"/>
+    </row>
+    <row r="33" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="72"/>
+      <c r="D33" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="E33" s="74">
+        <v>45660</v>
+      </c>
+      <c r="F33" s="74">
+        <v>45672</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="5">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="50"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
+      <c r="AH33" s="50"/>
+      <c r="AI33" s="50"/>
+      <c r="AJ33" s="50"/>
+      <c r="AK33" s="50"/>
+      <c r="AL33" s="50"/>
+      <c r="AM33" s="50"/>
+      <c r="AN33" s="50"/>
+      <c r="AO33" s="50"/>
+      <c r="AP33" s="50"/>
+      <c r="AQ33" s="50"/>
+      <c r="AR33" s="50"/>
+      <c r="AS33" s="50"/>
+      <c r="AT33" s="50"/>
+      <c r="AU33" s="50"/>
+      <c r="AV33" s="50"/>
+      <c r="AW33" s="50"/>
+      <c r="AX33" s="50"/>
+      <c r="AY33" s="50"/>
+      <c r="AZ33" s="50"/>
+      <c r="BA33" s="50"/>
+      <c r="BB33" s="50"/>
+      <c r="BC33" s="50"/>
+      <c r="BD33" s="50"/>
+      <c r="BE33" s="50"/>
+      <c r="BF33" s="50"/>
+      <c r="BG33" s="50"/>
+      <c r="BH33" s="50"/>
+      <c r="BI33" s="50"/>
+      <c r="BJ33" s="50"/>
+      <c r="BK33" s="50"/>
+      <c r="BL33" s="50"/>
+    </row>
+    <row r="34" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="72"/>
+      <c r="D34" s="73">
+        <v>0.6</v>
+      </c>
+      <c r="E34" s="74">
+        <v>45649</v>
+      </c>
+      <c r="F34" s="74">
+        <v>45669</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="5">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50"/>
+      <c r="AH34" s="50"/>
+      <c r="AI34" s="50"/>
+      <c r="AJ34" s="50"/>
+      <c r="AK34" s="50"/>
+      <c r="AL34" s="50"/>
+      <c r="AM34" s="50"/>
+      <c r="AN34" s="50"/>
+      <c r="AO34" s="50"/>
+      <c r="AP34" s="50"/>
+      <c r="AQ34" s="50"/>
+      <c r="AR34" s="50"/>
+      <c r="AS34" s="50"/>
+      <c r="AT34" s="50"/>
+      <c r="AU34" s="50"/>
+      <c r="AV34" s="50"/>
+      <c r="AW34" s="50"/>
+      <c r="AX34" s="50"/>
+      <c r="AY34" s="50"/>
+      <c r="AZ34" s="50"/>
+      <c r="BA34" s="50"/>
+      <c r="BB34" s="50"/>
+      <c r="BC34" s="50"/>
+      <c r="BD34" s="50"/>
+      <c r="BE34" s="50"/>
+      <c r="BF34" s="50"/>
+      <c r="BG34" s="50"/>
+      <c r="BH34" s="50"/>
+      <c r="BI34" s="50"/>
+      <c r="BJ34" s="50"/>
+      <c r="BK34" s="50"/>
+      <c r="BL34" s="50"/>
+    </row>
+    <row r="35" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="76"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="80"/>
+      <c r="T35" s="80"/>
+      <c r="U35" s="80"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="80"/>
+      <c r="Y35" s="80"/>
+      <c r="Z35" s="80"/>
+      <c r="AA35" s="80"/>
+      <c r="AB35" s="80"/>
+      <c r="AC35" s="80"/>
+      <c r="AD35" s="80"/>
+      <c r="AE35" s="80"/>
+      <c r="AF35" s="80"/>
+      <c r="AG35" s="80"/>
+      <c r="AH35" s="80"/>
+      <c r="AI35" s="80"/>
+      <c r="AJ35" s="80"/>
+      <c r="AK35" s="80"/>
+      <c r="AL35" s="80"/>
+      <c r="AM35" s="80"/>
+      <c r="AN35" s="80"/>
+      <c r="AO35" s="80"/>
+      <c r="AP35" s="80"/>
+      <c r="AQ35" s="80"/>
+      <c r="AR35" s="80"/>
+      <c r="AS35" s="80"/>
+      <c r="AT35" s="80"/>
+      <c r="AU35" s="80"/>
+      <c r="AV35" s="80"/>
+      <c r="AW35" s="80"/>
+      <c r="AX35" s="80"/>
+      <c r="AY35" s="80"/>
+      <c r="AZ35" s="80"/>
+      <c r="BA35" s="80"/>
+      <c r="BB35" s="80"/>
+      <c r="BC35" s="80"/>
+      <c r="BD35" s="80"/>
+      <c r="BE35" s="80"/>
+      <c r="BF35" s="80"/>
+      <c r="BG35" s="80"/>
+      <c r="BH35" s="80"/>
+      <c r="BI35" s="80"/>
+      <c r="BJ35" s="80"/>
+      <c r="BK35" s="80"/>
+      <c r="BL35" s="80"/>
+    </row>
+    <row r="36" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="84">
+        <f>Project_Start + 7</f>
+        <v>45644</v>
+      </c>
+      <c r="F36" s="84">
+        <v>45676</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="5">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
+      <c r="AH36" s="50"/>
+      <c r="AI36" s="50"/>
+      <c r="AJ36" s="50"/>
+      <c r="AK36" s="50"/>
+      <c r="AL36" s="50"/>
+      <c r="AM36" s="50"/>
+      <c r="AN36" s="50"/>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="50"/>
+      <c r="AQ36" s="50"/>
+      <c r="AR36" s="50"/>
+      <c r="AS36" s="50"/>
+      <c r="AT36" s="50"/>
+      <c r="AU36" s="50"/>
+      <c r="AV36" s="50"/>
+      <c r="AW36" s="50"/>
+      <c r="AX36" s="50"/>
+      <c r="AY36" s="50"/>
+      <c r="AZ36" s="50"/>
+      <c r="BA36" s="50"/>
+      <c r="BB36" s="50"/>
+      <c r="BC36" s="50"/>
+      <c r="BD36" s="50"/>
+      <c r="BE36" s="50"/>
+      <c r="BF36" s="50"/>
+      <c r="BG36" s="50"/>
+      <c r="BH36" s="50"/>
+      <c r="BI36" s="50"/>
+      <c r="BJ36" s="50"/>
+      <c r="BK36" s="50"/>
+      <c r="BL36" s="50"/>
+    </row>
+    <row r="37" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83">
+        <v>0.4</v>
+      </c>
+      <c r="E37" s="84">
+        <v>45647</v>
+      </c>
+      <c r="F37" s="84">
+        <v>45676</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="5">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="50"/>
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="50"/>
+      <c r="AK37" s="50"/>
+      <c r="AL37" s="50"/>
+      <c r="AM37" s="50"/>
+      <c r="AN37" s="50"/>
+      <c r="AO37" s="50"/>
+      <c r="AP37" s="50"/>
+      <c r="AQ37" s="50"/>
+      <c r="AR37" s="50"/>
+      <c r="AS37" s="50"/>
+      <c r="AT37" s="50"/>
+      <c r="AU37" s="50"/>
+      <c r="AV37" s="50"/>
+      <c r="AW37" s="50"/>
+      <c r="AX37" s="50"/>
+      <c r="AY37" s="50"/>
+      <c r="AZ37" s="50"/>
+      <c r="BA37" s="50"/>
+      <c r="BB37" s="50"/>
+      <c r="BC37" s="50"/>
+      <c r="BD37" s="50"/>
+      <c r="BE37" s="50"/>
+      <c r="BF37" s="50"/>
+      <c r="BG37" s="50"/>
+      <c r="BH37" s="50"/>
+      <c r="BI37" s="50"/>
+      <c r="BJ37" s="50"/>
+      <c r="BK37" s="50"/>
+      <c r="BL37" s="50"/>
+    </row>
+    <row r="38" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83">
+        <v>0</v>
+      </c>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="50"/>
+      <c r="AE38" s="50"/>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
+      <c r="AH38" s="50"/>
+      <c r="AI38" s="50"/>
+      <c r="AJ38" s="50"/>
+      <c r="AK38" s="50"/>
+      <c r="AL38" s="50"/>
+      <c r="AM38" s="50"/>
+      <c r="AN38" s="50"/>
+      <c r="AO38" s="50"/>
+      <c r="AP38" s="50"/>
+      <c r="AQ38" s="50"/>
+      <c r="AR38" s="50"/>
+      <c r="AS38" s="50"/>
+      <c r="AT38" s="50"/>
+      <c r="AU38" s="50"/>
+      <c r="AV38" s="50"/>
+      <c r="AW38" s="50"/>
+      <c r="AX38" s="50"/>
+      <c r="AY38" s="50"/>
+      <c r="AZ38" s="50"/>
+      <c r="BA38" s="50"/>
+      <c r="BB38" s="50"/>
+      <c r="BC38" s="50"/>
+      <c r="BD38" s="50"/>
+      <c r="BE38" s="50"/>
+      <c r="BF38" s="50"/>
+      <c r="BG38" s="50"/>
+      <c r="BH38" s="50"/>
+      <c r="BI38" s="50"/>
+      <c r="BJ38" s="50"/>
+      <c r="BK38" s="50"/>
+      <c r="BL38" s="50"/>
+    </row>
+    <row r="39" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
+      <c r="AH39" s="50"/>
+      <c r="AI39" s="50"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="50"/>
+      <c r="AP39" s="50"/>
+      <c r="AQ39" s="50"/>
+      <c r="AR39" s="50"/>
+      <c r="AS39" s="50"/>
+      <c r="AT39" s="50"/>
+      <c r="AU39" s="50"/>
+      <c r="AV39" s="50"/>
+      <c r="AW39" s="50"/>
+      <c r="AX39" s="50"/>
+      <c r="AY39" s="50"/>
+      <c r="AZ39" s="50"/>
+      <c r="BA39" s="50"/>
+      <c r="BB39" s="50"/>
+      <c r="BC39" s="50"/>
+      <c r="BD39" s="50"/>
+      <c r="BE39" s="50"/>
+      <c r="BF39" s="50"/>
+      <c r="BG39" s="50"/>
+      <c r="BH39" s="50"/>
+      <c r="BI39" s="50"/>
+      <c r="BJ39" s="50"/>
+      <c r="BK39" s="50"/>
+      <c r="BL39" s="50"/>
+    </row>
+    <row r="40" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="50"/>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="50"/>
+      <c r="AH40" s="50"/>
+      <c r="AI40" s="50"/>
+      <c r="AJ40" s="50"/>
+      <c r="AK40" s="50"/>
+      <c r="AL40" s="50"/>
+      <c r="AM40" s="50"/>
+      <c r="AN40" s="50"/>
+      <c r="AO40" s="50"/>
+      <c r="AP40" s="50"/>
+      <c r="AQ40" s="50"/>
+      <c r="AR40" s="50"/>
+      <c r="AS40" s="50"/>
+      <c r="AT40" s="50"/>
+      <c r="AU40" s="50"/>
+      <c r="AV40" s="50"/>
+      <c r="AW40" s="50"/>
+      <c r="AX40" s="50"/>
+      <c r="AY40" s="50"/>
+      <c r="AZ40" s="50"/>
+      <c r="BA40" s="50"/>
+      <c r="BB40" s="50"/>
+      <c r="BC40" s="50"/>
+      <c r="BD40" s="50"/>
+      <c r="BE40" s="50"/>
+      <c r="BF40" s="50"/>
+      <c r="BG40" s="50"/>
+      <c r="BH40" s="50"/>
+      <c r="BI40" s="50"/>
+      <c r="BJ40" s="50"/>
+      <c r="BK40" s="50"/>
+      <c r="BL40" s="50"/>
+    </row>
+    <row r="41" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="44"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="44"/>
+      <c r="AF41" s="44"/>
+      <c r="AG41" s="44"/>
+      <c r="AH41" s="44"/>
+      <c r="AI41" s="44"/>
+      <c r="AJ41" s="44"/>
+      <c r="AK41" s="44"/>
+      <c r="AL41" s="44"/>
+      <c r="AM41" s="44"/>
+      <c r="AN41" s="44"/>
+      <c r="AO41" s="44"/>
+      <c r="AP41" s="44"/>
+      <c r="AQ41" s="44"/>
+      <c r="AR41" s="44"/>
+      <c r="AS41" s="44"/>
+      <c r="AT41" s="44"/>
+      <c r="AU41" s="44"/>
+      <c r="AV41" s="44"/>
+      <c r="AW41" s="44"/>
+      <c r="AX41" s="44"/>
+      <c r="AY41" s="44"/>
+      <c r="AZ41" s="44"/>
+      <c r="BA41" s="44"/>
+      <c r="BB41" s="44"/>
+      <c r="BC41" s="44"/>
+      <c r="BD41" s="44"/>
+      <c r="BE41" s="44"/>
+      <c r="BF41" s="44"/>
+      <c r="BG41" s="44"/>
+      <c r="BH41" s="44"/>
+      <c r="BI41" s="44"/>
+      <c r="BJ41" s="44"/>
+      <c r="BK41" s="44"/>
+      <c r="BL41" s="44"/>
+    </row>
+    <row r="42" spans="1:64" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="90"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="94"/>
+      <c r="U42" s="94"/>
+      <c r="V42" s="94"/>
+      <c r="W42" s="94"/>
+      <c r="X42" s="94"/>
+      <c r="Y42" s="94"/>
+      <c r="Z42" s="94"/>
+      <c r="AA42" s="94"/>
+      <c r="AB42" s="94"/>
+      <c r="AC42" s="94"/>
+      <c r="AD42" s="94"/>
+      <c r="AE42" s="94"/>
+      <c r="AF42" s="94"/>
+      <c r="AG42" s="94"/>
+      <c r="AH42" s="94"/>
+      <c r="AI42" s="94"/>
+      <c r="AJ42" s="94"/>
+      <c r="AK42" s="94"/>
+      <c r="AL42" s="94"/>
+      <c r="AM42" s="94"/>
+      <c r="AN42" s="94"/>
+      <c r="AO42" s="94"/>
+      <c r="AP42" s="94"/>
+      <c r="AQ42" s="94"/>
+      <c r="AR42" s="94"/>
+      <c r="AS42" s="94"/>
+      <c r="AT42" s="94"/>
+      <c r="AU42" s="94"/>
+      <c r="AV42" s="94"/>
+      <c r="AW42" s="94"/>
+      <c r="AX42" s="94"/>
+      <c r="AY42" s="94"/>
+      <c r="AZ42" s="94"/>
+      <c r="BA42" s="94"/>
+      <c r="BB42" s="94"/>
+      <c r="BC42" s="94"/>
+      <c r="BD42" s="94"/>
+      <c r="BE42" s="94"/>
+      <c r="BF42" s="94"/>
+      <c r="BG42" s="94"/>
+      <c r="BH42" s="94"/>
+      <c r="BI42" s="94"/>
+      <c r="BJ42" s="94"/>
+      <c r="BK42" s="94"/>
+      <c r="BL42" s="94"/>
+    </row>
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="16"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="AD7:AJ7"/>
+    <mergeCell ref="AK7:AQ7"/>
+    <mergeCell ref="AR7:AX7"/>
+    <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="BF7:BL7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D10:D42">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{21466250-1DD3-4812-A865-D75EBEAFA38B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:BL40">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:BL16">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:BL22 I24:BL28">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:BL34">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:BL40">
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="13">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A42" xr:uid="{5C4538F2-3699-4A21-9E99-25207D1B4DB2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A35" xr:uid="{60D5D731-44B0-4C30-95F7-9CDECD0BB24E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A29" xr:uid="{409ECD8D-5E39-431E-8BE7-3D45EEEC8897}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A17 A23" xr:uid="{E94123A8-25EE-4982-934C-D2FD53EE66E3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A13" xr:uid="{58D86107-2889-46C5-98EC-364C669DEAF0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A12" xr:uid="{994A495A-3C58-4175-86B7-D544CE107577}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A11" xr:uid="{BA6FCB6A-EE81-4B05-BBA5-6C3DD91989EA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A8:A9" xr:uid="{36C48B37-CB3D-45FF-8D46-15480F902043}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A7" xr:uid="{D7C0BFD2-5A6D-4C8D-B16F-20EF31D4558F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A6" xr:uid="{0BB28C2A-3A61-477D-B8F5-2BBDC1694F45}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2:A5" xr:uid="{AB7800D6-23FB-4807-903D-B78A98C41C34}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1" xr:uid="{755B01FC-A537-419E-AEE9-2DBDF67EC797}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2:Q5" xr:uid="{79AD75B0-02E3-4C0C-B130-23129E2C1D5F}">
+      <formula1>1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1" scaleWithDoc="0">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{21466250-1DD3-4812-A865-D75EBEAFA38B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D10:D42</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87" style="7" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" s="9" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:2" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="99"/>
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:2" s="10" customFormat="1" ht="30.5" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.7">
       <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
@@ -11656,42 +15025,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="7" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="7" customFormat="1" ht="205.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="10" customFormat="1" ht="30.5" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.7">
       <c r="A8" s="100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="101" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="7" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="7" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="103" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="10" customFormat="1" ht="30.5" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.7">
       <c r="A11" s="100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="101" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="7" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="7" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="103" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="10" customFormat="1" ht="30.5" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.7">
       <c r="A14" s="100" t="s">
         <v>10</v>
       </c>
@@ -11701,7 +15070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="70" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="69" x14ac:dyDescent="0.25">
       <c r="A16" s="101" t="s">
         <v>12</v>
       </c>
@@ -11743,23 +15112,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12075,29 +15433,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12124,9 +15482,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
